--- a/Data_Bayes_1.xlsx
+++ b/Data_Bayes_1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1506" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2706" uniqueCount="565">
   <si>
     <t>number of trials</t>
   </si>
@@ -367,6 +367,447 @@
     <t>0.5876156316026659</t>
   </si>
   <si>
+    <t>-0.0011339683484839868</t>
+  </si>
+  <si>
+    <t>0.01797257497965712</t>
+  </si>
+  <si>
+    <t>0.03857206860618227</t>
+  </si>
+  <si>
+    <t>0.008379924826094924</t>
+  </si>
+  <si>
+    <t>0.020012667930504102</t>
+  </si>
+  <si>
+    <t>0.03724032134487808</t>
+  </si>
+  <si>
+    <t>0.005848555373924938</t>
+  </si>
+  <si>
+    <t>0.022280265015301514</t>
+  </si>
+  <si>
+    <t>0.07145341658934092</t>
+  </si>
+  <si>
+    <t>0.035253135933283206</t>
+  </si>
+  <si>
+    <t>0.017101709669941664</t>
+  </si>
+  <si>
+    <t>0.026507743186674454</t>
+  </si>
+  <si>
+    <t>0.017595815740507083</t>
+  </si>
+  <si>
+    <t>0.03754004764289305</t>
+  </si>
+  <si>
+    <t>0.027042837807003693</t>
+  </si>
+  <si>
+    <t>0.021546753362106562</t>
+  </si>
+  <si>
+    <t>0.031072670656200473</t>
+  </si>
+  <si>
+    <t>0.019992806514499792</t>
+  </si>
+  <si>
+    <t>0.027832107849248677</t>
+  </si>
+  <si>
+    <t>0.0058565426990895685</t>
+  </si>
+  <si>
+    <t>0.027278986008089763</t>
+  </si>
+  <si>
+    <t>0.025317322987486162</t>
+  </si>
+  <si>
+    <t>0.012062357542945788</t>
+  </si>
+  <si>
+    <t>0.029838361005444364</t>
+  </si>
+  <si>
+    <t>0.37501157817026176</t>
+  </si>
+  <si>
+    <t>0.6961392144299339</t>
+  </si>
+  <si>
+    <t>0.17109563850882667</t>
+  </si>
+  <si>
+    <t>0.017617406160237305</t>
+  </si>
+  <si>
+    <t>0.23443592007771152</t>
+  </si>
+  <si>
+    <t>0.03401659739475458</t>
+  </si>
+  <si>
+    <t>0.03021859236685077</t>
+  </si>
+  <si>
+    <t>0.32328045889617557</t>
+  </si>
+  <si>
+    <t>0.015268002813238665</t>
+  </si>
+  <si>
+    <t>0.051978721073935884</t>
+  </si>
+  <si>
+    <t>0.011676610897369545</t>
+  </si>
+  <si>
+    <t>0.04125784714736514</t>
+  </si>
+  <si>
+    <t>0.03742956928621039</t>
+  </si>
+  <si>
+    <t>0.03534643274646346</t>
+  </si>
+  <si>
+    <t>0.5906337704179034</t>
+  </si>
+  <si>
+    <t>0.014583631783989782</t>
+  </si>
+  <si>
+    <t>0.05241698690045774</t>
+  </si>
+  <si>
+    <t>0.014417704438164827</t>
+  </si>
+  <si>
+    <t>0.09083361189922949</t>
+  </si>
+  <si>
+    <t>0.024330394561827215</t>
+  </si>
+  <si>
+    <t>0.04753327912144713</t>
+  </si>
+  <si>
+    <t>0.023241884696509525</t>
+  </si>
+  <si>
+    <t>0.02071060236532202</t>
+  </si>
+  <si>
+    <t>2.402383509447249</t>
+  </si>
+  <si>
+    <t>0.017441309685144412</t>
+  </si>
+  <si>
+    <t>0.5330515143928475</t>
+  </si>
+  <si>
+    <t>0.9999999990807176</t>
+  </si>
+  <si>
+    <t>0.9620929491833783</t>
+  </si>
+  <si>
+    <t>0.641544892193042</t>
+  </si>
+  <si>
+    <t>0.928871158274906</t>
+  </si>
+  <si>
+    <t>0.00013937499022075858</t>
+  </si>
+  <si>
+    <t>0.17777168401098756</t>
+  </si>
+  <si>
+    <t>0.16407915897599984</t>
+  </si>
+  <si>
+    <t>0.9999999995458289</t>
+  </si>
+  <si>
+    <t>0.9999999946286613</t>
+  </si>
+  <si>
+    <t>0.004609052351468773</t>
+  </si>
+  <si>
+    <t>-6.43175168004466e-06</t>
+  </si>
+  <si>
+    <t>0.9999999923272547</t>
+  </si>
+  <si>
+    <t>0.01951609817657566</t>
+  </si>
+  <si>
+    <t>0.9999999800000005</t>
+  </si>
+  <si>
+    <t>0.3761796055408788</t>
+  </si>
+  <si>
+    <t>0.37596234870982076</t>
+  </si>
+  <si>
+    <t>0.3168043376615582</t>
+  </si>
+  <si>
+    <t>0.6932235825285477</t>
+  </si>
+  <si>
+    <t>0.16170649348080754</t>
+  </si>
+  <si>
+    <t>0.9386632149345854</t>
+  </si>
+  <si>
+    <t>1.1285988112425943e-05</t>
+  </si>
+  <si>
+    <t>0.01107554947906616</t>
+  </si>
+  <si>
+    <t>0.08179967137375062</t>
+  </si>
+  <si>
+    <t>0.01765935241609459</t>
+  </si>
+  <si>
+    <t>0.0009234518189658957</t>
+  </si>
+  <si>
+    <t>0.028433326272226018</t>
+  </si>
+  <si>
+    <t>0.9999999999999989</t>
+  </si>
+  <si>
+    <t>0.1537089927769378</t>
+  </si>
+  <si>
+    <t>0.0004231680197843012</t>
+  </si>
+  <si>
+    <t>0.9999999958496381</t>
+  </si>
+  <si>
+    <t>0.1078646327190113</t>
+  </si>
+  <si>
+    <t>0.0006169046881779257</t>
+  </si>
+  <si>
+    <t>0.0035033211254947676</t>
+  </si>
+  <si>
+    <t>0.9999999898964591</t>
+  </si>
+  <si>
+    <t>0.08652468698682318</t>
+  </si>
+  <si>
+    <t>0.0031949103753104733</t>
+  </si>
+  <si>
+    <t>0.07225179144410125</t>
+  </si>
+  <si>
+    <t>0.011321971610723035</t>
+  </si>
+  <si>
+    <t>0.999999987390708</t>
+  </si>
+  <si>
+    <t>8.727117991288062e-06</t>
+  </si>
+  <si>
+    <t>0.29651051385501276</t>
+  </si>
+  <si>
+    <t>0.3776186091402897</t>
+  </si>
+  <si>
+    <t>0.005836143202999452</t>
+  </si>
+  <si>
+    <t>0.491669808832411</t>
+  </si>
+  <si>
+    <t>0.0004667268868001006</t>
+  </si>
+  <si>
+    <t>0.43297749687379317</t>
+  </si>
+  <si>
+    <t>0.23289138528804462</t>
+  </si>
+  <si>
+    <t>0.010029305158785338</t>
+  </si>
+  <si>
+    <t>0.8341794547275104</t>
+  </si>
+  <si>
+    <t>0.03135583278582513</t>
+  </si>
+  <si>
+    <t>0.9985327811313126</t>
+  </si>
+  <si>
+    <t>0.998897078367085</t>
+  </si>
+  <si>
+    <t>0.9985212880520694</t>
+  </si>
+  <si>
+    <t>0.009045432187431831</t>
+  </si>
+  <si>
+    <t>1.0001156095264432</t>
+  </si>
+  <si>
+    <t>0.998676180847099</t>
+  </si>
+  <si>
+    <t>0.9985474090136365</t>
+  </si>
+  <si>
+    <t>0.031301081104547705</t>
+  </si>
+  <si>
+    <t>-0.1269217535560545</t>
+  </si>
+  <si>
+    <t>0.3750480753346815</t>
+  </si>
+  <si>
+    <t>0.7721153713184032</t>
+  </si>
+  <si>
+    <t>0.4669929793255916</t>
+  </si>
+  <si>
+    <t>0.6145548541907557</t>
+  </si>
+  <si>
+    <t>0.6801967724432979</t>
+  </si>
+  <si>
+    <t>0.043263105549657545</t>
+  </si>
+  <si>
+    <t>0.10386118229967702</t>
+  </si>
+  <si>
+    <t>0.9986759757072997</t>
+  </si>
+  <si>
+    <t>0.9989211205214775</t>
+  </si>
+  <si>
+    <t>0.8282888210430694</t>
+  </si>
+  <si>
+    <t>0.493340359309781</t>
+  </si>
+  <si>
+    <t>0.9984587833624257</t>
+  </si>
+  <si>
+    <t>0.2713004967153933</t>
+  </si>
+  <si>
+    <t>1.0009680410198538</t>
+  </si>
+  <si>
+    <t>0.06655243549824132</t>
+  </si>
+  <si>
+    <t>0.9987772113710738</t>
+  </si>
+  <si>
+    <t>0.22478113772704764</t>
+  </si>
+  <si>
+    <t>0.293635307210536</t>
+  </si>
+  <si>
+    <t>0.9986569600676518</t>
+  </si>
+  <si>
+    <t>0.2723660155674394</t>
+  </si>
+  <si>
+    <t>0.9044566917363002</t>
+  </si>
+  <si>
+    <t>0.9982903232401207</t>
+  </si>
+  <si>
+    <t>0.9986822298576993</t>
+  </si>
+  <si>
+    <t>0.9984762604836807</t>
+  </si>
+  <si>
+    <t>0.998683540274187</t>
+  </si>
+  <si>
+    <t>0.9985479900094718</t>
+  </si>
+  <si>
+    <t>0.13770326696215354</t>
+  </si>
+  <si>
+    <t>0.9985602934306216</t>
+  </si>
+  <si>
+    <t>0.9986128767920333</t>
+  </si>
+  <si>
+    <t>0.6933804449540395</t>
+  </si>
+  <si>
+    <t>0.12532253904876212</t>
+  </si>
+  <si>
+    <t>0.9979093064082326</t>
+  </si>
+  <si>
+    <t>0.47611142750470387</t>
+  </si>
+  <si>
+    <t>0.03223345766673517</t>
+  </si>
+  <si>
+    <t>0.35946874486277924</t>
+  </si>
+  <si>
+    <t>0.1799405922643588</t>
+  </si>
+  <si>
+    <t>0.6015006750657671</t>
+  </si>
+  <si>
+    <t>0.17542618168112445</t>
+  </si>
+  <si>
     <t>0.04071277379989624</t>
   </si>
   <si>
@@ -815,6 +1256,456 @@
   </si>
   <si>
     <t>0.035389979680379234</t>
+  </si>
+  <si>
+    <t>0.06807374954223633</t>
+  </si>
+  <si>
+    <t>0.010628819465637207</t>
+  </si>
+  <si>
+    <t>0.010485100746154784</t>
+  </si>
+  <si>
+    <t>0.01324838399887085</t>
+  </si>
+  <si>
+    <t>0.02099919319152832</t>
+  </si>
+  <si>
+    <t>0.011912256479263306</t>
+  </si>
+  <si>
+    <t>0.009553885459899903</t>
+  </si>
+  <si>
+    <t>0.014199972152709961</t>
+  </si>
+  <si>
+    <t>0.08519601821899414</t>
+  </si>
+  <si>
+    <t>0.010992646217346191</t>
+  </si>
+  <si>
+    <t>0.009845336278279623</t>
+  </si>
+  <si>
+    <t>0.008830010890960693</t>
+  </si>
+  <si>
+    <t>0.08360648155212402</t>
+  </si>
+  <si>
+    <t>0.010470199584960937</t>
+  </si>
+  <si>
+    <t>0.011910349130630493</t>
+  </si>
+  <si>
+    <t>0.010971784591674805</t>
+  </si>
+  <si>
+    <t>0.0105668306350708</t>
+  </si>
+  <si>
+    <t>0.010103146235148111</t>
+  </si>
+  <si>
+    <t>0.0222550630569458</t>
+  </si>
+  <si>
+    <t>0.011124173800150553</t>
+  </si>
+  <si>
+    <t>0.02041846513748169</t>
+  </si>
+  <si>
+    <t>0.02172762155532837</t>
+  </si>
+  <si>
+    <t>0.012240171432495117</t>
+  </si>
+  <si>
+    <t>0.039526402950286865</t>
+  </si>
+  <si>
+    <t>0.010081052780151367</t>
+  </si>
+  <si>
+    <t>0.03577408790588379</t>
+  </si>
+  <si>
+    <t>0.03436481952667236</t>
+  </si>
+  <si>
+    <t>0.010259449481964111</t>
+  </si>
+  <si>
+    <t>0.05944838523864746</t>
+  </si>
+  <si>
+    <t>0.048152645428975425</t>
+  </si>
+  <si>
+    <t>0.0823589563369751</t>
+  </si>
+  <si>
+    <t>0.011265182495117187</t>
+  </si>
+  <si>
+    <t>0.010531246662139893</t>
+  </si>
+  <si>
+    <t>0.010103225708007812</t>
+  </si>
+  <si>
+    <t>0.015109777450561523</t>
+  </si>
+  <si>
+    <t>0.009797871112823486</t>
+  </si>
+  <si>
+    <t>0.0336209774017334</t>
+  </si>
+  <si>
+    <t>0.012833094596862793</t>
+  </si>
+  <si>
+    <t>0.011854618787765503</t>
+  </si>
+  <si>
+    <t>0.06175464391708374</t>
+  </si>
+  <si>
+    <t>0.010527729988098145</t>
+  </si>
+  <si>
+    <t>0.035562992095947266</t>
+  </si>
+  <si>
+    <t>0.014947080612182617</t>
+  </si>
+  <si>
+    <t>0.012095153331756592</t>
+  </si>
+  <si>
+    <t>0.015434503555297852</t>
+  </si>
+  <si>
+    <t>0.04620667298634847</t>
+  </si>
+  <si>
+    <t>0.04495728015899658</t>
+  </si>
+  <si>
+    <t>0.011805391311645508</t>
+  </si>
+  <si>
+    <t>0.0365811288356781</t>
+  </si>
+  <si>
+    <t>0.011330167452494303</t>
+  </si>
+  <si>
+    <t>0.03543989658355713</t>
+  </si>
+  <si>
+    <t>0.05752179622650146</t>
+  </si>
+  <si>
+    <t>0.04113039970397949</t>
+  </si>
+  <si>
+    <t>0.10368886590003967</t>
+  </si>
+  <si>
+    <t>0.04430182774861654</t>
+  </si>
+  <si>
+    <t>0.030364473660786945</t>
+  </si>
+  <si>
+    <t>0.025361716747283936</t>
+  </si>
+  <si>
+    <t>0.02849435806274414</t>
+  </si>
+  <si>
+    <t>0.048256367444992065</t>
+  </si>
+  <si>
+    <t>0.03975133101145426</t>
+  </si>
+  <si>
+    <t>0.01100224256515503</t>
+  </si>
+  <si>
+    <t>0.0173814594745636</t>
+  </si>
+  <si>
+    <t>0.08717724680900574</t>
+  </si>
+  <si>
+    <t>0.012249398231506347</t>
+  </si>
+  <si>
+    <t>0.07749434312184651</t>
+  </si>
+  <si>
+    <t>0.023248106241226196</t>
+  </si>
+  <si>
+    <t>0.04348669052124023</t>
+  </si>
+  <si>
+    <t>0.045318802197774254</t>
+  </si>
+  <si>
+    <t>0.020057106018066408</t>
+  </si>
+  <si>
+    <t>0.0627259910106659</t>
+  </si>
+  <si>
+    <t>0.011013984680175781</t>
+  </si>
+  <si>
+    <t>0.09231766064961751</t>
+  </si>
+  <si>
+    <t>0.03815886378288269</t>
+  </si>
+  <si>
+    <t>0.05853752295176188</t>
+  </si>
+  <si>
+    <t>0.024193257093429565</t>
+  </si>
+  <si>
+    <t>0.04298752546310425</t>
+  </si>
+  <si>
+    <t>0.02447362740834554</t>
+  </si>
+  <si>
+    <t>0.038863301277160645</t>
+  </si>
+  <si>
+    <t>0.08153716723124187</t>
+  </si>
+  <si>
+    <t>0.02619197964668274</t>
+  </si>
+  <si>
+    <t>0.06955866018931071</t>
+  </si>
+  <si>
+    <t>0.1441193421681722</t>
+  </si>
+  <si>
+    <t>0.09181531270345052</t>
+  </si>
+  <si>
+    <t>0.06096339225769043</t>
+  </si>
+  <si>
+    <t>0.02868598699569702</t>
+  </si>
+  <si>
+    <t>0.025035977363586426</t>
+  </si>
+  <si>
+    <t>0.07686316967010498</t>
+  </si>
+  <si>
+    <t>0.03976436456044515</t>
+  </si>
+  <si>
+    <t>0.048919081687927246</t>
+  </si>
+  <si>
+    <t>0.10260623693466187</t>
+  </si>
+  <si>
+    <t>0.07211849093437195</t>
+  </si>
+  <si>
+    <t>0.009302198886871338</t>
+  </si>
+  <si>
+    <t>0.05183860659599304</t>
+  </si>
+  <si>
+    <t>0.04700189828872681</t>
+  </si>
+  <si>
+    <t>0.13309321403503419</t>
+  </si>
+  <si>
+    <t>0.027719646692276</t>
+  </si>
+  <si>
+    <t>0.018943607807159424</t>
+  </si>
+  <si>
+    <t>0.009743372599283854</t>
+  </si>
+  <si>
+    <t>0.021719765663146973</t>
+  </si>
+  <si>
+    <t>0.01115731398264567</t>
+  </si>
+  <si>
+    <t>0.05412302017211914</t>
+  </si>
+  <si>
+    <t>0.06820201873779297</t>
+  </si>
+  <si>
+    <t>0.03004271984100342</t>
+  </si>
+  <si>
+    <t>0.009971439838409424</t>
+  </si>
+  <si>
+    <t>0.04177787899971008</t>
+  </si>
+  <si>
+    <t>0.06787749131520589</t>
+  </si>
+  <si>
+    <t>0.06274601817131042</t>
+  </si>
+  <si>
+    <t>0.026371300220489502</t>
+  </si>
+  <si>
+    <t>0.011222779750823975</t>
+  </si>
+  <si>
+    <t>0.05911129713058472</t>
+  </si>
+  <si>
+    <t>0.04843912124633789</t>
+  </si>
+  <si>
+    <t>0.0658712387084961</t>
+  </si>
+  <si>
+    <t>0.08409672975540161</t>
+  </si>
+  <si>
+    <t>0.06510910391807556</t>
+  </si>
+  <si>
+    <t>0.08689379692077637</t>
+  </si>
+  <si>
+    <t>0.04791132609049479</t>
+  </si>
+  <si>
+    <t>0.03695031007130941</t>
+  </si>
+  <si>
+    <t>0.04861791133880615</t>
+  </si>
+  <si>
+    <t>0.08845987319946289</t>
+  </si>
+  <si>
+    <t>0.04003183046976725</t>
+  </si>
+  <si>
+    <t>0.05195791721343994</t>
+  </si>
+  <si>
+    <t>0.03786575794219971</t>
+  </si>
+  <si>
+    <t>0.08096899986267089</t>
+  </si>
+  <si>
+    <t>0.05269762873649597</t>
+  </si>
+  <si>
+    <t>0.04007953405380249</t>
+  </si>
+  <si>
+    <t>0.04250340461730957</t>
+  </si>
+  <si>
+    <t>0.03934049606323242</t>
+  </si>
+  <si>
+    <t>0.012065470218658447</t>
+  </si>
+  <si>
+    <t>0.0706571102142334</t>
+  </si>
+  <si>
+    <t>0.06343040466308594</t>
+  </si>
+  <si>
+    <t>0.024315357208251953</t>
+  </si>
+  <si>
+    <t>0.0598372220993042</t>
+  </si>
+  <si>
+    <t>0.03632199764251709</t>
+  </si>
+  <si>
+    <t>0.06299510598182678</t>
+  </si>
+  <si>
+    <t>0.05178360939025879</t>
+  </si>
+  <si>
+    <t>0.03950387239456177</t>
+  </si>
+  <si>
+    <t>0.03289461135864258</t>
+  </si>
+  <si>
+    <t>0.056743812561035153</t>
+  </si>
+  <si>
+    <t>0.1131056547164917</t>
+  </si>
+  <si>
+    <t>0.030004024505615234</t>
+  </si>
+  <si>
+    <t>0.06796771287918091</t>
+  </si>
+  <si>
+    <t>0.10427364706993103</t>
+  </si>
+  <si>
+    <t>0.0590519905090332</t>
+  </si>
+  <si>
+    <t>0.04526047706604004</t>
+  </si>
+  <si>
+    <t>0.0534216562906901</t>
+  </si>
+  <si>
+    <t>0.011566837628682455</t>
+  </si>
+  <si>
+    <t>0.07985448837280273</t>
+  </si>
+  <si>
+    <t>0.024481534957885742</t>
+  </si>
+  <si>
+    <t>0.03951817750930786</t>
+  </si>
+  <si>
+    <t>0.06355303525924683</t>
   </si>
   <si>
     <t>Bayes</t>
@@ -1175,7 +2066,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G251"/>
+  <dimension ref="A1:G451"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1218,10 +2109,10 @@
         <v>14</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="G2" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1241,10 +2132,10 @@
         <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1264,10 +2155,10 @@
         <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>119</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1287,10 +2178,10 @@
         <v>17</v>
       </c>
       <c r="F5" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1310,10 +2201,10 @@
         <v>15</v>
       </c>
       <c r="F6" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1333,10 +2224,10 @@
         <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="G7" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1356,10 +2247,10 @@
         <v>19</v>
       </c>
       <c r="F8" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="G8" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1379,10 +2270,10 @@
         <v>20</v>
       </c>
       <c r="F9" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="G9" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1402,10 +2293,10 @@
         <v>21</v>
       </c>
       <c r="F10" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="G10" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1425,10 +2316,10 @@
         <v>22</v>
       </c>
       <c r="F11" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="G11" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1448,10 +2339,10 @@
         <v>23</v>
       </c>
       <c r="F12" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="G12" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1471,10 +2362,10 @@
         <v>24</v>
       </c>
       <c r="F13" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="G13" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1494,10 +2385,10 @@
         <v>25</v>
       </c>
       <c r="F14" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="G14" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1517,10 +2408,10 @@
         <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="G15" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1540,10 +2431,10 @@
         <v>27</v>
       </c>
       <c r="F16" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="G16" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1563,10 +2454,10 @@
         <v>28</v>
       </c>
       <c r="F17" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="G17" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1586,10 +2477,10 @@
         <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="G18" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1609,10 +2500,10 @@
         <v>29</v>
       </c>
       <c r="F19" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="G19" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1632,10 +2523,10 @@
         <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="G20" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1655,10 +2546,10 @@
         <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="G21" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1678,10 +2569,10 @@
         <v>30</v>
       </c>
       <c r="F22" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="G22" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1701,10 +2592,10 @@
         <v>31</v>
       </c>
       <c r="F23" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="G23" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1724,10 +2615,10 @@
         <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="G24" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1747,10 +2638,10 @@
         <v>33</v>
       </c>
       <c r="F25" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="G25" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1770,10 +2661,10 @@
         <v>34</v>
       </c>
       <c r="F26" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="G26" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1793,10 +2684,10 @@
         <v>35</v>
       </c>
       <c r="F27" t="s">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="G27" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1816,10 +2707,10 @@
         <v>15</v>
       </c>
       <c r="F28" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="G28" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1839,10 +2730,10 @@
         <v>36</v>
       </c>
       <c r="F29" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="G29" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1862,10 +2753,10 @@
         <v>37</v>
       </c>
       <c r="F30" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="G30" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1885,10 +2776,10 @@
         <v>38</v>
       </c>
       <c r="F31" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="G31" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1908,10 +2799,10 @@
         <v>39</v>
       </c>
       <c r="F32" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="G32" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1931,10 +2822,10 @@
         <v>40</v>
       </c>
       <c r="F33" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="G33" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1954,10 +2845,10 @@
         <v>41</v>
       </c>
       <c r="F34" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="G34" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1977,10 +2868,10 @@
         <v>42</v>
       </c>
       <c r="F35" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="G35" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2000,10 +2891,10 @@
         <v>15</v>
       </c>
       <c r="F36" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="G36" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2023,10 +2914,10 @@
         <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="G37" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2046,10 +2937,10 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="G38" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2069,10 +2960,10 @@
         <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="G39" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2092,10 +2983,10 @@
         <v>15</v>
       </c>
       <c r="F40" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="G40" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2115,10 +3006,10 @@
         <v>46</v>
       </c>
       <c r="F41" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2138,10 +3029,10 @@
         <v>47</v>
       </c>
       <c r="F42" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="G42" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2161,10 +3052,10 @@
         <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="G43" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2184,10 +3075,10 @@
         <v>48</v>
       </c>
       <c r="F44" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="G44" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2207,10 +3098,10 @@
         <v>15</v>
       </c>
       <c r="F45" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="G45" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2230,10 +3121,10 @@
         <v>49</v>
       </c>
       <c r="F46" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="G46" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2253,10 +3144,10 @@
         <v>15</v>
       </c>
       <c r="F47" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="G47" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2276,10 +3167,10 @@
         <v>50</v>
       </c>
       <c r="F48" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="G48" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2299,10 +3190,10 @@
         <v>51</v>
       </c>
       <c r="F49" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="G49" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2322,10 +3213,10 @@
         <v>15</v>
       </c>
       <c r="F50" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="G50" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2345,10 +3236,10 @@
         <v>15</v>
       </c>
       <c r="F51" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="G51" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2368,10 +3259,10 @@
         <v>14</v>
       </c>
       <c r="F52" t="s">
-        <v>117</v>
+        <v>264</v>
       </c>
       <c r="G52" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="53" spans="1:7">
@@ -2391,10 +3282,10 @@
         <v>15</v>
       </c>
       <c r="F53" t="s">
-        <v>118</v>
+        <v>265</v>
       </c>
       <c r="G53" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="54" spans="1:7">
@@ -2414,10 +3305,10 @@
         <v>16</v>
       </c>
       <c r="F54" t="s">
-        <v>119</v>
+        <v>266</v>
       </c>
       <c r="G54" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="55" spans="1:7">
@@ -2437,10 +3328,10 @@
         <v>17</v>
       </c>
       <c r="F55" t="s">
-        <v>120</v>
+        <v>267</v>
       </c>
       <c r="G55" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="56" spans="1:7">
@@ -2460,10 +3351,10 @@
         <v>15</v>
       </c>
       <c r="F56" t="s">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="G56" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="57" spans="1:7">
@@ -2483,10 +3374,10 @@
         <v>18</v>
       </c>
       <c r="F57" t="s">
-        <v>122</v>
+        <v>269</v>
       </c>
       <c r="G57" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="58" spans="1:7">
@@ -2506,10 +3397,10 @@
         <v>19</v>
       </c>
       <c r="F58" t="s">
-        <v>123</v>
+        <v>270</v>
       </c>
       <c r="G58" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="59" spans="1:7">
@@ -2529,10 +3420,10 @@
         <v>20</v>
       </c>
       <c r="F59" t="s">
-        <v>124</v>
+        <v>271</v>
       </c>
       <c r="G59" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="60" spans="1:7">
@@ -2552,10 +3443,10 @@
         <v>21</v>
       </c>
       <c r="F60" t="s">
-        <v>125</v>
+        <v>272</v>
       </c>
       <c r="G60" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="61" spans="1:7">
@@ -2575,10 +3466,10 @@
         <v>22</v>
       </c>
       <c r="F61" t="s">
-        <v>126</v>
+        <v>273</v>
       </c>
       <c r="G61" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="62" spans="1:7">
@@ -2598,10 +3489,10 @@
         <v>23</v>
       </c>
       <c r="F62" t="s">
-        <v>127</v>
+        <v>274</v>
       </c>
       <c r="G62" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="63" spans="1:7">
@@ -2621,10 +3512,10 @@
         <v>24</v>
       </c>
       <c r="F63" t="s">
-        <v>128</v>
+        <v>275</v>
       </c>
       <c r="G63" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="64" spans="1:7">
@@ -2644,10 +3535,10 @@
         <v>25</v>
       </c>
       <c r="F64" t="s">
-        <v>129</v>
+        <v>276</v>
       </c>
       <c r="G64" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="65" spans="1:7">
@@ -2667,10 +3558,10 @@
         <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>130</v>
+        <v>277</v>
       </c>
       <c r="G65" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="66" spans="1:7">
@@ -2690,10 +3581,10 @@
         <v>27</v>
       </c>
       <c r="F66" t="s">
-        <v>131</v>
+        <v>278</v>
       </c>
       <c r="G66" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="67" spans="1:7">
@@ -2713,10 +3604,10 @@
         <v>28</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>279</v>
       </c>
       <c r="G67" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="68" spans="1:7">
@@ -2736,10 +3627,10 @@
         <v>15</v>
       </c>
       <c r="F68" t="s">
-        <v>133</v>
+        <v>280</v>
       </c>
       <c r="G68" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="69" spans="1:7">
@@ -2759,10 +3650,10 @@
         <v>29</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>281</v>
       </c>
       <c r="G69" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70" spans="1:7">
@@ -2782,10 +3673,10 @@
         <v>15</v>
       </c>
       <c r="F70" t="s">
-        <v>135</v>
+        <v>282</v>
       </c>
       <c r="G70" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="71" spans="1:7">
@@ -2805,10 +3696,10 @@
         <v>15</v>
       </c>
       <c r="F71" t="s">
-        <v>136</v>
+        <v>283</v>
       </c>
       <c r="G71" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="72" spans="1:7">
@@ -2828,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="F72" t="s">
-        <v>137</v>
+        <v>284</v>
       </c>
       <c r="G72" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="73" spans="1:7">
@@ -2851,10 +3742,10 @@
         <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>138</v>
+        <v>285</v>
       </c>
       <c r="G73" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74" spans="1:7">
@@ -2874,10 +3765,10 @@
         <v>32</v>
       </c>
       <c r="F74" t="s">
-        <v>139</v>
+        <v>286</v>
       </c>
       <c r="G74" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="75" spans="1:7">
@@ -2897,10 +3788,10 @@
         <v>33</v>
       </c>
       <c r="F75" t="s">
-        <v>140</v>
+        <v>287</v>
       </c>
       <c r="G75" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="76" spans="1:7">
@@ -2920,10 +3811,10 @@
         <v>34</v>
       </c>
       <c r="F76" t="s">
-        <v>141</v>
+        <v>288</v>
       </c>
       <c r="G76" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="77" spans="1:7">
@@ -2943,10 +3834,10 @@
         <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>142</v>
+        <v>289</v>
       </c>
       <c r="G77" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="78" spans="1:7">
@@ -2966,10 +3857,10 @@
         <v>15</v>
       </c>
       <c r="F78" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="G78" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="79" spans="1:7">
@@ -2989,10 +3880,10 @@
         <v>36</v>
       </c>
       <c r="F79" t="s">
-        <v>144</v>
+        <v>291</v>
       </c>
       <c r="G79" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="80" spans="1:7">
@@ -3012,10 +3903,10 @@
         <v>37</v>
       </c>
       <c r="F80" t="s">
-        <v>145</v>
+        <v>292</v>
       </c>
       <c r="G80" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="81" spans="1:7">
@@ -3035,10 +3926,10 @@
         <v>38</v>
       </c>
       <c r="F81" t="s">
-        <v>146</v>
+        <v>293</v>
       </c>
       <c r="G81" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="82" spans="1:7">
@@ -3058,10 +3949,10 @@
         <v>39</v>
       </c>
       <c r="F82" t="s">
-        <v>147</v>
+        <v>294</v>
       </c>
       <c r="G82" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="83" spans="1:7">
@@ -3081,10 +3972,10 @@
         <v>40</v>
       </c>
       <c r="F83" t="s">
-        <v>148</v>
+        <v>295</v>
       </c>
       <c r="G83" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="84" spans="1:7">
@@ -3104,10 +3995,10 @@
         <v>41</v>
       </c>
       <c r="F84" t="s">
-        <v>149</v>
+        <v>296</v>
       </c>
       <c r="G84" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="85" spans="1:7">
@@ -3127,10 +4018,10 @@
         <v>42</v>
       </c>
       <c r="F85" t="s">
-        <v>150</v>
+        <v>297</v>
       </c>
       <c r="G85" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="86" spans="1:7">
@@ -3150,10 +4041,10 @@
         <v>15</v>
       </c>
       <c r="F86" t="s">
-        <v>151</v>
+        <v>298</v>
       </c>
       <c r="G86" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="87" spans="1:7">
@@ -3173,10 +4064,10 @@
         <v>43</v>
       </c>
       <c r="F87" t="s">
-        <v>152</v>
+        <v>299</v>
       </c>
       <c r="G87" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="88" spans="1:7">
@@ -3196,10 +4087,10 @@
         <v>44</v>
       </c>
       <c r="F88" t="s">
-        <v>153</v>
+        <v>300</v>
       </c>
       <c r="G88" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="89" spans="1:7">
@@ -3219,10 +4110,10 @@
         <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>154</v>
+        <v>301</v>
       </c>
       <c r="G89" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="90" spans="1:7">
@@ -3242,10 +4133,10 @@
         <v>15</v>
       </c>
       <c r="F90" t="s">
-        <v>155</v>
+        <v>302</v>
       </c>
       <c r="G90" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="91" spans="1:7">
@@ -3265,10 +4156,10 @@
         <v>46</v>
       </c>
       <c r="F91" t="s">
-        <v>156</v>
+        <v>303</v>
       </c>
       <c r="G91" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="92" spans="1:7">
@@ -3288,10 +4179,10 @@
         <v>47</v>
       </c>
       <c r="F92" t="s">
-        <v>157</v>
+        <v>304</v>
       </c>
       <c r="G92" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="93" spans="1:7">
@@ -3311,10 +4202,10 @@
         <v>15</v>
       </c>
       <c r="F93" t="s">
-        <v>158</v>
+        <v>305</v>
       </c>
       <c r="G93" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="94" spans="1:7">
@@ -3334,10 +4225,10 @@
         <v>48</v>
       </c>
       <c r="F94" t="s">
-        <v>159</v>
+        <v>306</v>
       </c>
       <c r="G94" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="95" spans="1:7">
@@ -3357,10 +4248,10 @@
         <v>15</v>
       </c>
       <c r="F95" t="s">
-        <v>160</v>
+        <v>307</v>
       </c>
       <c r="G95" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="96" spans="1:7">
@@ -3380,10 +4271,10 @@
         <v>49</v>
       </c>
       <c r="F96" t="s">
-        <v>161</v>
+        <v>308</v>
       </c>
       <c r="G96" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="97" spans="1:7">
@@ -3403,10 +4294,10 @@
         <v>15</v>
       </c>
       <c r="F97" t="s">
-        <v>162</v>
+        <v>309</v>
       </c>
       <c r="G97" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="98" spans="1:7">
@@ -3426,10 +4317,10 @@
         <v>50</v>
       </c>
       <c r="F98" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="G98" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="99" spans="1:7">
@@ -3449,10 +4340,10 @@
         <v>51</v>
       </c>
       <c r="F99" t="s">
-        <v>164</v>
+        <v>311</v>
       </c>
       <c r="G99" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="100" spans="1:7">
@@ -3472,10 +4363,10 @@
         <v>15</v>
       </c>
       <c r="F100" t="s">
-        <v>165</v>
+        <v>312</v>
       </c>
       <c r="G100" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="101" spans="1:7">
@@ -3495,10 +4386,10 @@
         <v>15</v>
       </c>
       <c r="F101" t="s">
-        <v>166</v>
+        <v>313</v>
       </c>
       <c r="G101" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="102" spans="1:7">
@@ -3518,10 +4409,10 @@
         <v>52</v>
       </c>
       <c r="F102" t="s">
-        <v>167</v>
+        <v>314</v>
       </c>
       <c r="G102" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="103" spans="1:7">
@@ -3541,10 +4432,10 @@
         <v>53</v>
       </c>
       <c r="F103" t="s">
-        <v>168</v>
+        <v>315</v>
       </c>
       <c r="G103" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="104" spans="1:7">
@@ -3564,10 +4455,10 @@
         <v>54</v>
       </c>
       <c r="F104" t="s">
-        <v>169</v>
+        <v>316</v>
       </c>
       <c r="G104" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="105" spans="1:7">
@@ -3587,10 +4478,10 @@
         <v>55</v>
       </c>
       <c r="F105" t="s">
-        <v>170</v>
+        <v>317</v>
       </c>
       <c r="G105" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="106" spans="1:7">
@@ -3610,10 +4501,10 @@
         <v>56</v>
       </c>
       <c r="F106" t="s">
-        <v>171</v>
+        <v>318</v>
       </c>
       <c r="G106" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="107" spans="1:7">
@@ -3633,10 +4524,10 @@
         <v>57</v>
       </c>
       <c r="F107" t="s">
-        <v>172</v>
+        <v>319</v>
       </c>
       <c r="G107" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="108" spans="1:7">
@@ -3656,10 +4547,10 @@
         <v>55</v>
       </c>
       <c r="F108" t="s">
-        <v>173</v>
+        <v>320</v>
       </c>
       <c r="G108" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="109" spans="1:7">
@@ -3679,10 +4570,10 @@
         <v>58</v>
       </c>
       <c r="F109" t="s">
-        <v>174</v>
+        <v>321</v>
       </c>
       <c r="G109" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="110" spans="1:7">
@@ -3702,10 +4593,10 @@
         <v>59</v>
       </c>
       <c r="F110" t="s">
-        <v>175</v>
+        <v>322</v>
       </c>
       <c r="G110" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="111" spans="1:7">
@@ -3725,10 +4616,10 @@
         <v>60</v>
       </c>
       <c r="F111" t="s">
-        <v>176</v>
+        <v>323</v>
       </c>
       <c r="G111" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="112" spans="1:7">
@@ -3748,10 +4639,10 @@
         <v>61</v>
       </c>
       <c r="F112" t="s">
-        <v>177</v>
+        <v>324</v>
       </c>
       <c r="G112" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="113" spans="1:7">
@@ -3771,10 +4662,10 @@
         <v>62</v>
       </c>
       <c r="F113" t="s">
-        <v>178</v>
+        <v>325</v>
       </c>
       <c r="G113" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="114" spans="1:7">
@@ -3794,10 +4685,10 @@
         <v>63</v>
       </c>
       <c r="F114" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="G114" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="115" spans="1:7">
@@ -3817,10 +4708,10 @@
         <v>64</v>
       </c>
       <c r="F115" t="s">
-        <v>180</v>
+        <v>327</v>
       </c>
       <c r="G115" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="116" spans="1:7">
@@ -3840,10 +4731,10 @@
         <v>65</v>
       </c>
       <c r="F116" t="s">
-        <v>181</v>
+        <v>328</v>
       </c>
       <c r="G116" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:7">
@@ -3863,10 +4754,10 @@
         <v>56</v>
       </c>
       <c r="F117" t="s">
-        <v>182</v>
+        <v>329</v>
       </c>
       <c r="G117" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:7">
@@ -3886,10 +4777,10 @@
         <v>66</v>
       </c>
       <c r="F118" t="s">
-        <v>183</v>
+        <v>330</v>
       </c>
       <c r="G118" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="119" spans="1:7">
@@ -3909,10 +4800,10 @@
         <v>67</v>
       </c>
       <c r="F119" t="s">
-        <v>184</v>
+        <v>331</v>
       </c>
       <c r="G119" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="120" spans="1:7">
@@ -3932,10 +4823,10 @@
         <v>68</v>
       </c>
       <c r="F120" t="s">
-        <v>185</v>
+        <v>332</v>
       </c>
       <c r="G120" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="121" spans="1:7">
@@ -3955,10 +4846,10 @@
         <v>69</v>
       </c>
       <c r="F121" t="s">
-        <v>186</v>
+        <v>333</v>
       </c>
       <c r="G121" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="122" spans="1:7">
@@ -3978,10 +4869,10 @@
         <v>70</v>
       </c>
       <c r="F122" t="s">
-        <v>187</v>
+        <v>334</v>
       </c>
       <c r="G122" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="123" spans="1:7">
@@ -4001,10 +4892,10 @@
         <v>71</v>
       </c>
       <c r="F123" t="s">
-        <v>188</v>
+        <v>335</v>
       </c>
       <c r="G123" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="124" spans="1:7">
@@ -4024,10 +4915,10 @@
         <v>72</v>
       </c>
       <c r="F124" t="s">
-        <v>189</v>
+        <v>336</v>
       </c>
       <c r="G124" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="125" spans="1:7">
@@ -4047,10 +4938,10 @@
         <v>73</v>
       </c>
       <c r="F125" t="s">
-        <v>190</v>
+        <v>337</v>
       </c>
       <c r="G125" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="126" spans="1:7">
@@ -4070,10 +4961,10 @@
         <v>74</v>
       </c>
       <c r="F126" t="s">
-        <v>191</v>
+        <v>338</v>
       </c>
       <c r="G126" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="127" spans="1:7">
@@ -4093,10 +4984,10 @@
         <v>75</v>
       </c>
       <c r="F127" t="s">
-        <v>192</v>
+        <v>339</v>
       </c>
       <c r="G127" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="128" spans="1:7">
@@ -4116,10 +5007,10 @@
         <v>76</v>
       </c>
       <c r="F128" t="s">
-        <v>193</v>
+        <v>340</v>
       </c>
       <c r="G128" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="129" spans="1:7">
@@ -4139,10 +5030,10 @@
         <v>77</v>
       </c>
       <c r="F129" t="s">
-        <v>194</v>
+        <v>341</v>
       </c>
       <c r="G129" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="130" spans="1:7">
@@ -4162,10 +5053,10 @@
         <v>78</v>
       </c>
       <c r="F130" t="s">
-        <v>195</v>
+        <v>342</v>
       </c>
       <c r="G130" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="131" spans="1:7">
@@ -4185,10 +5076,10 @@
         <v>79</v>
       </c>
       <c r="F131" t="s">
-        <v>196</v>
+        <v>343</v>
       </c>
       <c r="G131" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="132" spans="1:7">
@@ -4208,10 +5099,10 @@
         <v>80</v>
       </c>
       <c r="F132" t="s">
-        <v>197</v>
+        <v>344</v>
       </c>
       <c r="G132" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="133" spans="1:7">
@@ -4231,10 +5122,10 @@
         <v>55</v>
       </c>
       <c r="F133" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G133" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="134" spans="1:7">
@@ -4254,10 +5145,10 @@
         <v>81</v>
       </c>
       <c r="F134" t="s">
-        <v>199</v>
+        <v>346</v>
       </c>
       <c r="G134" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="135" spans="1:7">
@@ -4277,10 +5168,10 @@
         <v>82</v>
       </c>
       <c r="F135" t="s">
-        <v>200</v>
+        <v>347</v>
       </c>
       <c r="G135" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="136" spans="1:7">
@@ -4300,10 +5191,10 @@
         <v>83</v>
       </c>
       <c r="F136" t="s">
-        <v>201</v>
+        <v>348</v>
       </c>
       <c r="G136" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="137" spans="1:7">
@@ -4323,10 +5214,10 @@
         <v>84</v>
       </c>
       <c r="F137" t="s">
-        <v>202</v>
+        <v>349</v>
       </c>
       <c r="G137" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="138" spans="1:7">
@@ -4346,10 +5237,10 @@
         <v>85</v>
       </c>
       <c r="F138" t="s">
-        <v>203</v>
+        <v>350</v>
       </c>
       <c r="G138" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="139" spans="1:7">
@@ -4369,10 +5260,10 @@
         <v>86</v>
       </c>
       <c r="F139" t="s">
-        <v>204</v>
+        <v>351</v>
       </c>
       <c r="G139" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="140" spans="1:7">
@@ -4392,10 +5283,10 @@
         <v>56</v>
       </c>
       <c r="F140" t="s">
-        <v>205</v>
+        <v>352</v>
       </c>
       <c r="G140" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="141" spans="1:7">
@@ -4415,10 +5306,10 @@
         <v>87</v>
       </c>
       <c r="F141" t="s">
-        <v>206</v>
+        <v>353</v>
       </c>
       <c r="G141" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="142" spans="1:7">
@@ -4438,10 +5329,10 @@
         <v>88</v>
       </c>
       <c r="F142" t="s">
-        <v>207</v>
+        <v>354</v>
       </c>
       <c r="G142" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="143" spans="1:7">
@@ -4461,10 +5352,10 @@
         <v>89</v>
       </c>
       <c r="F143" t="s">
-        <v>208</v>
+        <v>355</v>
       </c>
       <c r="G143" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="144" spans="1:7">
@@ -4484,10 +5375,10 @@
         <v>90</v>
       </c>
       <c r="F144" t="s">
-        <v>209</v>
+        <v>356</v>
       </c>
       <c r="G144" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="145" spans="1:7">
@@ -4507,10 +5398,10 @@
         <v>91</v>
       </c>
       <c r="F145" t="s">
-        <v>210</v>
+        <v>357</v>
       </c>
       <c r="G145" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="146" spans="1:7">
@@ -4530,10 +5421,10 @@
         <v>92</v>
       </c>
       <c r="F146" t="s">
-        <v>211</v>
+        <v>358</v>
       </c>
       <c r="G146" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="147" spans="1:7">
@@ -4553,10 +5444,10 @@
         <v>56</v>
       </c>
       <c r="F147" t="s">
-        <v>212</v>
+        <v>359</v>
       </c>
       <c r="G147" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="148" spans="1:7">
@@ -4576,10 +5467,10 @@
         <v>55</v>
       </c>
       <c r="F148" t="s">
-        <v>213</v>
+        <v>360</v>
       </c>
       <c r="G148" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="149" spans="1:7">
@@ -4599,10 +5490,10 @@
         <v>93</v>
       </c>
       <c r="F149" t="s">
-        <v>214</v>
+        <v>361</v>
       </c>
       <c r="G149" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="150" spans="1:7">
@@ -4622,10 +5513,10 @@
         <v>94</v>
       </c>
       <c r="F150" t="s">
-        <v>215</v>
+        <v>362</v>
       </c>
       <c r="G150" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="151" spans="1:7">
@@ -4645,10 +5536,10 @@
         <v>95</v>
       </c>
       <c r="F151" t="s">
-        <v>216</v>
+        <v>363</v>
       </c>
       <c r="G151" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="152" spans="1:7">
@@ -4668,10 +5559,10 @@
         <v>96</v>
       </c>
       <c r="F152" t="s">
-        <v>217</v>
+        <v>364</v>
       </c>
       <c r="G152" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="153" spans="1:7">
@@ -4691,10 +5582,10 @@
         <v>96</v>
       </c>
       <c r="F153" t="s">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="G153" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="154" spans="1:7">
@@ -4714,10 +5605,10 @@
         <v>97</v>
       </c>
       <c r="F154" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="G154" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="155" spans="1:7">
@@ -4737,10 +5628,10 @@
         <v>96</v>
       </c>
       <c r="F155" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="G155" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="156" spans="1:7">
@@ -4760,10 +5651,10 @@
         <v>98</v>
       </c>
       <c r="F156" t="s">
-        <v>221</v>
+        <v>368</v>
       </c>
       <c r="G156" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="157" spans="1:7">
@@ -4783,10 +5674,10 @@
         <v>99</v>
       </c>
       <c r="F157" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="G157" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="158" spans="1:7">
@@ -4806,10 +5697,10 @@
         <v>100</v>
       </c>
       <c r="F158" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="G158" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="159" spans="1:7">
@@ -4829,10 +5720,10 @@
         <v>96</v>
       </c>
       <c r="F159" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="G159" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="160" spans="1:7">
@@ -4852,10 +5743,10 @@
         <v>96</v>
       </c>
       <c r="F160" t="s">
-        <v>225</v>
+        <v>372</v>
       </c>
       <c r="G160" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="161" spans="1:7">
@@ -4875,10 +5766,10 @@
         <v>96</v>
       </c>
       <c r="F161" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="G161" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="162" spans="1:7">
@@ -4898,10 +5789,10 @@
         <v>101</v>
       </c>
       <c r="F162" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
       <c r="G162" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="163" spans="1:7">
@@ -4921,10 +5812,10 @@
         <v>96</v>
       </c>
       <c r="F163" t="s">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="G163" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="164" spans="1:7">
@@ -4944,10 +5835,10 @@
         <v>96</v>
       </c>
       <c r="F164" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="G164" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="165" spans="1:7">
@@ -4967,10 +5858,10 @@
         <v>96</v>
       </c>
       <c r="F165" t="s">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="G165" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="166" spans="1:7">
@@ -4990,10 +5881,10 @@
         <v>102</v>
       </c>
       <c r="F166" t="s">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="G166" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="167" spans="1:7">
@@ -5013,10 +5904,10 @@
         <v>96</v>
       </c>
       <c r="F167" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="G167" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="168" spans="1:7">
@@ -5036,10 +5927,10 @@
         <v>103</v>
       </c>
       <c r="F168" t="s">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="G168" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="169" spans="1:7">
@@ -5059,10 +5950,10 @@
         <v>96</v>
       </c>
       <c r="F169" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="G169" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="170" spans="1:7">
@@ -5082,10 +5973,10 @@
         <v>104</v>
       </c>
       <c r="F170" t="s">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="G170" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="171" spans="1:7">
@@ -5105,10 +5996,10 @@
         <v>96</v>
       </c>
       <c r="F171" t="s">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="G171" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="172" spans="1:7">
@@ -5128,10 +6019,10 @@
         <v>105</v>
       </c>
       <c r="F172" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="G172" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="173" spans="1:7">
@@ -5151,10 +6042,10 @@
         <v>96</v>
       </c>
       <c r="F173" t="s">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="G173" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="174" spans="1:7">
@@ -5174,10 +6065,10 @@
         <v>96</v>
       </c>
       <c r="F174" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="G174" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="175" spans="1:7">
@@ -5197,10 +6088,10 @@
         <v>96</v>
       </c>
       <c r="F175" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="G175" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="176" spans="1:7">
@@ -5220,10 +6111,10 @@
         <v>106</v>
       </c>
       <c r="F176" t="s">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="G176" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="177" spans="1:7">
@@ -5243,10 +6134,10 @@
         <v>107</v>
       </c>
       <c r="F177" t="s">
-        <v>242</v>
+        <v>389</v>
       </c>
       <c r="G177" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="178" spans="1:7">
@@ -5266,10 +6157,10 @@
         <v>108</v>
       </c>
       <c r="F178" t="s">
-        <v>243</v>
+        <v>390</v>
       </c>
       <c r="G178" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="179" spans="1:7">
@@ -5289,10 +6180,10 @@
         <v>109</v>
       </c>
       <c r="F179" t="s">
-        <v>244</v>
+        <v>391</v>
       </c>
       <c r="G179" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="180" spans="1:7">
@@ -5312,10 +6203,10 @@
         <v>110</v>
       </c>
       <c r="F180" t="s">
-        <v>245</v>
+        <v>392</v>
       </c>
       <c r="G180" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="181" spans="1:7">
@@ -5335,10 +6226,10 @@
         <v>96</v>
       </c>
       <c r="F181" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="G181" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="182" spans="1:7">
@@ -5358,10 +6249,10 @@
         <v>96</v>
       </c>
       <c r="F182" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="G182" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="183" spans="1:7">
@@ -5381,10 +6272,10 @@
         <v>96</v>
       </c>
       <c r="F183" t="s">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="G183" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="184" spans="1:7">
@@ -5404,10 +6295,10 @@
         <v>96</v>
       </c>
       <c r="F184" t="s">
-        <v>249</v>
+        <v>396</v>
       </c>
       <c r="G184" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="185" spans="1:7">
@@ -5427,10 +6318,10 @@
         <v>96</v>
       </c>
       <c r="F185" t="s">
-        <v>250</v>
+        <v>397</v>
       </c>
       <c r="G185" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="186" spans="1:7">
@@ -5450,10 +6341,10 @@
         <v>111</v>
       </c>
       <c r="F186" t="s">
-        <v>251</v>
+        <v>398</v>
       </c>
       <c r="G186" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="187" spans="1:7">
@@ -5473,10 +6364,10 @@
         <v>112</v>
       </c>
       <c r="F187" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="G187" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="188" spans="1:7">
@@ -5496,10 +6387,10 @@
         <v>96</v>
       </c>
       <c r="F188" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="G188" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="189" spans="1:7">
@@ -5519,10 +6410,10 @@
         <v>96</v>
       </c>
       <c r="F189" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="G189" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="190" spans="1:7">
@@ -5542,10 +6433,10 @@
         <v>96</v>
       </c>
       <c r="F190" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="G190" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="191" spans="1:7">
@@ -5565,10 +6456,10 @@
         <v>113</v>
       </c>
       <c r="F191" t="s">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="G191" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="192" spans="1:7">
@@ -5588,10 +6479,10 @@
         <v>96</v>
       </c>
       <c r="F192" t="s">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="G192" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="193" spans="1:7">
@@ -5611,10 +6502,10 @@
         <v>96</v>
       </c>
       <c r="F193" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="G193" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="194" spans="1:7">
@@ -5634,10 +6525,10 @@
         <v>114</v>
       </c>
       <c r="F194" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="G194" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="195" spans="1:7">
@@ -5657,10 +6548,10 @@
         <v>115</v>
       </c>
       <c r="F195" t="s">
-        <v>260</v>
+        <v>407</v>
       </c>
       <c r="G195" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="196" spans="1:7">
@@ -5680,10 +6571,10 @@
         <v>96</v>
       </c>
       <c r="F196" t="s">
-        <v>261</v>
+        <v>408</v>
       </c>
       <c r="G196" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="197" spans="1:7">
@@ -5703,10 +6594,10 @@
         <v>96</v>
       </c>
       <c r="F197" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="G197" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="198" spans="1:7">
@@ -5726,10 +6617,10 @@
         <v>96</v>
       </c>
       <c r="F198" t="s">
-        <v>263</v>
+        <v>410</v>
       </c>
       <c r="G198" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="199" spans="1:7">
@@ -5749,10 +6640,10 @@
         <v>96</v>
       </c>
       <c r="F199" t="s">
-        <v>264</v>
+        <v>411</v>
       </c>
       <c r="G199" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="200" spans="1:7">
@@ -5772,10 +6663,10 @@
         <v>116</v>
       </c>
       <c r="F200" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="G200" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="201" spans="1:7">
@@ -5795,10 +6686,10 @@
         <v>96</v>
       </c>
       <c r="F201" t="s">
-        <v>266</v>
+        <v>413</v>
       </c>
       <c r="G201" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="202" spans="1:7">
@@ -5818,10 +6709,10 @@
         <v>96</v>
       </c>
       <c r="F202" t="s">
-        <v>217</v>
+        <v>364</v>
       </c>
       <c r="G202" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="203" spans="1:7">
@@ -5841,10 +6732,10 @@
         <v>96</v>
       </c>
       <c r="F203" t="s">
-        <v>218</v>
+        <v>365</v>
       </c>
       <c r="G203" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="204" spans="1:7">
@@ -5864,10 +6755,10 @@
         <v>97</v>
       </c>
       <c r="F204" t="s">
-        <v>219</v>
+        <v>366</v>
       </c>
       <c r="G204" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="205" spans="1:7">
@@ -5887,10 +6778,10 @@
         <v>96</v>
       </c>
       <c r="F205" t="s">
-        <v>220</v>
+        <v>367</v>
       </c>
       <c r="G205" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="206" spans="1:7">
@@ -5910,10 +6801,10 @@
         <v>98</v>
       </c>
       <c r="F206" t="s">
-        <v>221</v>
+        <v>368</v>
       </c>
       <c r="G206" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="207" spans="1:7">
@@ -5933,10 +6824,10 @@
         <v>99</v>
       </c>
       <c r="F207" t="s">
-        <v>222</v>
+        <v>369</v>
       </c>
       <c r="G207" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="208" spans="1:7">
@@ -5956,10 +6847,10 @@
         <v>100</v>
       </c>
       <c r="F208" t="s">
-        <v>223</v>
+        <v>370</v>
       </c>
       <c r="G208" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="209" spans="1:7">
@@ -5979,10 +6870,10 @@
         <v>96</v>
       </c>
       <c r="F209" t="s">
-        <v>224</v>
+        <v>371</v>
       </c>
       <c r="G209" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="210" spans="1:7">
@@ -6002,10 +6893,10 @@
         <v>96</v>
       </c>
       <c r="F210" t="s">
-        <v>225</v>
+        <v>372</v>
       </c>
       <c r="G210" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="211" spans="1:7">
@@ -6025,10 +6916,10 @@
         <v>96</v>
       </c>
       <c r="F211" t="s">
-        <v>226</v>
+        <v>373</v>
       </c>
       <c r="G211" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="212" spans="1:7">
@@ -6048,10 +6939,10 @@
         <v>101</v>
       </c>
       <c r="F212" t="s">
-        <v>227</v>
+        <v>374</v>
       </c>
       <c r="G212" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="213" spans="1:7">
@@ -6071,10 +6962,10 @@
         <v>96</v>
       </c>
       <c r="F213" t="s">
-        <v>228</v>
+        <v>375</v>
       </c>
       <c r="G213" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="214" spans="1:7">
@@ -6094,10 +6985,10 @@
         <v>96</v>
       </c>
       <c r="F214" t="s">
-        <v>229</v>
+        <v>376</v>
       </c>
       <c r="G214" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="215" spans="1:7">
@@ -6117,10 +7008,10 @@
         <v>96</v>
       </c>
       <c r="F215" t="s">
-        <v>230</v>
+        <v>377</v>
       </c>
       <c r="G215" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="216" spans="1:7">
@@ -6140,10 +7031,10 @@
         <v>102</v>
       </c>
       <c r="F216" t="s">
-        <v>231</v>
+        <v>378</v>
       </c>
       <c r="G216" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="217" spans="1:7">
@@ -6163,10 +7054,10 @@
         <v>96</v>
       </c>
       <c r="F217" t="s">
-        <v>232</v>
+        <v>379</v>
       </c>
       <c r="G217" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="218" spans="1:7">
@@ -6186,10 +7077,10 @@
         <v>103</v>
       </c>
       <c r="F218" t="s">
-        <v>233</v>
+        <v>380</v>
       </c>
       <c r="G218" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="219" spans="1:7">
@@ -6209,10 +7100,10 @@
         <v>96</v>
       </c>
       <c r="F219" t="s">
-        <v>234</v>
+        <v>381</v>
       </c>
       <c r="G219" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="220" spans="1:7">
@@ -6232,10 +7123,10 @@
         <v>104</v>
       </c>
       <c r="F220" t="s">
-        <v>235</v>
+        <v>382</v>
       </c>
       <c r="G220" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="221" spans="1:7">
@@ -6255,10 +7146,10 @@
         <v>96</v>
       </c>
       <c r="F221" t="s">
-        <v>236</v>
+        <v>383</v>
       </c>
       <c r="G221" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="222" spans="1:7">
@@ -6278,10 +7169,10 @@
         <v>105</v>
       </c>
       <c r="F222" t="s">
-        <v>237</v>
+        <v>384</v>
       </c>
       <c r="G222" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="223" spans="1:7">
@@ -6301,10 +7192,10 @@
         <v>96</v>
       </c>
       <c r="F223" t="s">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="G223" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="224" spans="1:7">
@@ -6324,10 +7215,10 @@
         <v>96</v>
       </c>
       <c r="F224" t="s">
-        <v>239</v>
+        <v>386</v>
       </c>
       <c r="G224" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="225" spans="1:7">
@@ -6347,10 +7238,10 @@
         <v>96</v>
       </c>
       <c r="F225" t="s">
-        <v>240</v>
+        <v>387</v>
       </c>
       <c r="G225" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="226" spans="1:7">
@@ -6370,10 +7261,10 @@
         <v>106</v>
       </c>
       <c r="F226" t="s">
-        <v>241</v>
+        <v>388</v>
       </c>
       <c r="G226" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="227" spans="1:7">
@@ -6393,10 +7284,10 @@
         <v>107</v>
       </c>
       <c r="F227" t="s">
-        <v>242</v>
+        <v>389</v>
       </c>
       <c r="G227" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="228" spans="1:7">
@@ -6416,10 +7307,10 @@
         <v>108</v>
       </c>
       <c r="F228" t="s">
-        <v>243</v>
+        <v>390</v>
       </c>
       <c r="G228" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="229" spans="1:7">
@@ -6439,10 +7330,10 @@
         <v>109</v>
       </c>
       <c r="F229" t="s">
-        <v>244</v>
+        <v>391</v>
       </c>
       <c r="G229" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="230" spans="1:7">
@@ -6462,10 +7353,10 @@
         <v>110</v>
       </c>
       <c r="F230" t="s">
-        <v>245</v>
+        <v>392</v>
       </c>
       <c r="G230" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="231" spans="1:7">
@@ -6485,10 +7376,10 @@
         <v>96</v>
       </c>
       <c r="F231" t="s">
-        <v>246</v>
+        <v>393</v>
       </c>
       <c r="G231" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="232" spans="1:7">
@@ -6508,10 +7399,10 @@
         <v>96</v>
       </c>
       <c r="F232" t="s">
-        <v>247</v>
+        <v>394</v>
       </c>
       <c r="G232" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="233" spans="1:7">
@@ -6531,10 +7422,10 @@
         <v>96</v>
       </c>
       <c r="F233" t="s">
-        <v>248</v>
+        <v>395</v>
       </c>
       <c r="G233" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="234" spans="1:7">
@@ -6554,10 +7445,10 @@
         <v>96</v>
       </c>
       <c r="F234" t="s">
-        <v>249</v>
+        <v>396</v>
       </c>
       <c r="G234" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="235" spans="1:7">
@@ -6577,10 +7468,10 @@
         <v>96</v>
       </c>
       <c r="F235" t="s">
-        <v>250</v>
+        <v>397</v>
       </c>
       <c r="G235" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="236" spans="1:7">
@@ -6600,10 +7491,10 @@
         <v>111</v>
       </c>
       <c r="F236" t="s">
-        <v>251</v>
+        <v>398</v>
       </c>
       <c r="G236" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="237" spans="1:7">
@@ -6623,10 +7514,10 @@
         <v>112</v>
       </c>
       <c r="F237" t="s">
-        <v>252</v>
+        <v>399</v>
       </c>
       <c r="G237" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="238" spans="1:7">
@@ -6646,10 +7537,10 @@
         <v>96</v>
       </c>
       <c r="F238" t="s">
-        <v>253</v>
+        <v>400</v>
       </c>
       <c r="G238" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="239" spans="1:7">
@@ -6669,10 +7560,10 @@
         <v>96</v>
       </c>
       <c r="F239" t="s">
-        <v>254</v>
+        <v>401</v>
       </c>
       <c r="G239" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="240" spans="1:7">
@@ -6692,10 +7583,10 @@
         <v>96</v>
       </c>
       <c r="F240" t="s">
-        <v>255</v>
+        <v>402</v>
       </c>
       <c r="G240" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="241" spans="1:7">
@@ -6715,10 +7606,10 @@
         <v>113</v>
       </c>
       <c r="F241" t="s">
-        <v>256</v>
+        <v>403</v>
       </c>
       <c r="G241" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="242" spans="1:7">
@@ -6738,10 +7629,10 @@
         <v>96</v>
       </c>
       <c r="F242" t="s">
-        <v>257</v>
+        <v>404</v>
       </c>
       <c r="G242" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="243" spans="1:7">
@@ -6761,10 +7652,10 @@
         <v>96</v>
       </c>
       <c r="F243" t="s">
-        <v>258</v>
+        <v>405</v>
       </c>
       <c r="G243" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="244" spans="1:7">
@@ -6784,10 +7675,10 @@
         <v>114</v>
       </c>
       <c r="F244" t="s">
-        <v>259</v>
+        <v>406</v>
       </c>
       <c r="G244" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="245" spans="1:7">
@@ -6807,10 +7698,10 @@
         <v>115</v>
       </c>
       <c r="F245" t="s">
-        <v>260</v>
+        <v>407</v>
       </c>
       <c r="G245" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="246" spans="1:7">
@@ -6830,10 +7721,10 @@
         <v>96</v>
       </c>
       <c r="F246" t="s">
-        <v>261</v>
+        <v>408</v>
       </c>
       <c r="G246" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="247" spans="1:7">
@@ -6853,10 +7744,10 @@
         <v>96</v>
       </c>
       <c r="F247" t="s">
-        <v>262</v>
+        <v>409</v>
       </c>
       <c r="G247" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="248" spans="1:7">
@@ -6876,10 +7767,10 @@
         <v>96</v>
       </c>
       <c r="F248" t="s">
-        <v>263</v>
+        <v>410</v>
       </c>
       <c r="G248" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="249" spans="1:7">
@@ -6899,10 +7790,10 @@
         <v>96</v>
       </c>
       <c r="F249" t="s">
-        <v>264</v>
+        <v>411</v>
       </c>
       <c r="G249" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="250" spans="1:7">
@@ -6922,10 +7813,10 @@
         <v>116</v>
       </c>
       <c r="F250" t="s">
-        <v>265</v>
+        <v>412</v>
       </c>
       <c r="G250" t="s">
-        <v>267</v>
+        <v>564</v>
       </c>
     </row>
     <row r="251" spans="1:7">
@@ -6945,10 +7836,4610 @@
         <v>96</v>
       </c>
       <c r="F251" t="s">
-        <v>266</v>
+        <v>413</v>
       </c>
       <c r="G251" t="s">
-        <v>267</v>
+        <v>564</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7">
+      <c r="A252" s="1">
+        <v>0</v>
+      </c>
+      <c r="B252" t="s">
+        <v>6</v>
+      </c>
+      <c r="C252" t="s">
+        <v>6</v>
+      </c>
+      <c r="D252" t="s">
+        <v>11</v>
+      </c>
+      <c r="E252" t="s">
+        <v>117</v>
+      </c>
+      <c r="F252" t="s">
+        <v>414</v>
+      </c>
+      <c r="G252" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7">
+      <c r="A253" s="1">
+        <v>1</v>
+      </c>
+      <c r="B253" t="s">
+        <v>7</v>
+      </c>
+      <c r="C253" t="s">
+        <v>6</v>
+      </c>
+      <c r="D253" t="s">
+        <v>11</v>
+      </c>
+      <c r="E253" t="s">
+        <v>118</v>
+      </c>
+      <c r="F253" t="s">
+        <v>415</v>
+      </c>
+      <c r="G253" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7">
+      <c r="A254" s="1">
+        <v>2</v>
+      </c>
+      <c r="B254" t="s">
+        <v>8</v>
+      </c>
+      <c r="C254" t="s">
+        <v>6</v>
+      </c>
+      <c r="D254" t="s">
+        <v>11</v>
+      </c>
+      <c r="E254" t="s">
+        <v>119</v>
+      </c>
+      <c r="F254" t="s">
+        <v>416</v>
+      </c>
+      <c r="G254" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7">
+      <c r="A255" s="1">
+        <v>3</v>
+      </c>
+      <c r="B255" t="s">
+        <v>9</v>
+      </c>
+      <c r="C255" t="s">
+        <v>6</v>
+      </c>
+      <c r="D255" t="s">
+        <v>11</v>
+      </c>
+      <c r="E255" t="s">
+        <v>120</v>
+      </c>
+      <c r="F255" t="s">
+        <v>417</v>
+      </c>
+      <c r="G255" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7">
+      <c r="A256" s="1">
+        <v>4</v>
+      </c>
+      <c r="B256" t="s">
+        <v>7</v>
+      </c>
+      <c r="C256" t="s">
+        <v>6</v>
+      </c>
+      <c r="D256" t="s">
+        <v>11</v>
+      </c>
+      <c r="E256" t="s">
+        <v>121</v>
+      </c>
+      <c r="F256" t="s">
+        <v>418</v>
+      </c>
+      <c r="G256" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7">
+      <c r="A257" s="1">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>9</v>
+      </c>
+      <c r="C257" t="s">
+        <v>6</v>
+      </c>
+      <c r="D257" t="s">
+        <v>11</v>
+      </c>
+      <c r="E257" t="s">
+        <v>122</v>
+      </c>
+      <c r="F257" t="s">
+        <v>419</v>
+      </c>
+      <c r="G257" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7">
+      <c r="A258" s="1">
+        <v>6</v>
+      </c>
+      <c r="B258" t="s">
+        <v>8</v>
+      </c>
+      <c r="C258" t="s">
+        <v>6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>11</v>
+      </c>
+      <c r="E258" t="s">
+        <v>123</v>
+      </c>
+      <c r="F258" t="s">
+        <v>420</v>
+      </c>
+      <c r="G258" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7">
+      <c r="A259" s="1">
+        <v>7</v>
+      </c>
+      <c r="B259" t="s">
+        <v>7</v>
+      </c>
+      <c r="C259" t="s">
+        <v>6</v>
+      </c>
+      <c r="D259" t="s">
+        <v>11</v>
+      </c>
+      <c r="E259" t="s">
+        <v>124</v>
+      </c>
+      <c r="F259" t="s">
+        <v>421</v>
+      </c>
+      <c r="G259" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7">
+      <c r="A260" s="1">
+        <v>8</v>
+      </c>
+      <c r="B260" t="s">
+        <v>9</v>
+      </c>
+      <c r="C260" t="s">
+        <v>6</v>
+      </c>
+      <c r="D260" t="s">
+        <v>11</v>
+      </c>
+      <c r="E260" t="s">
+        <v>125</v>
+      </c>
+      <c r="F260" t="s">
+        <v>422</v>
+      </c>
+      <c r="G260" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7">
+      <c r="A261" s="1">
+        <v>9</v>
+      </c>
+      <c r="B261" t="s">
+        <v>9</v>
+      </c>
+      <c r="C261" t="s">
+        <v>6</v>
+      </c>
+      <c r="D261" t="s">
+        <v>11</v>
+      </c>
+      <c r="E261" t="s">
+        <v>126</v>
+      </c>
+      <c r="F261" t="s">
+        <v>423</v>
+      </c>
+      <c r="G261" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7">
+      <c r="A262" s="1">
+        <v>10</v>
+      </c>
+      <c r="B262" t="s">
+        <v>7</v>
+      </c>
+      <c r="C262" t="s">
+        <v>6</v>
+      </c>
+      <c r="D262" t="s">
+        <v>11</v>
+      </c>
+      <c r="E262" t="s">
+        <v>127</v>
+      </c>
+      <c r="F262" t="s">
+        <v>424</v>
+      </c>
+      <c r="G262" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7">
+      <c r="A263" s="1">
+        <v>11</v>
+      </c>
+      <c r="B263" t="s">
+        <v>6</v>
+      </c>
+      <c r="C263" t="s">
+        <v>6</v>
+      </c>
+      <c r="D263" t="s">
+        <v>11</v>
+      </c>
+      <c r="E263" t="s">
+        <v>128</v>
+      </c>
+      <c r="F263" t="s">
+        <v>425</v>
+      </c>
+      <c r="G263" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7">
+      <c r="A264" s="1">
+        <v>12</v>
+      </c>
+      <c r="B264" t="s">
+        <v>7</v>
+      </c>
+      <c r="C264" t="s">
+        <v>6</v>
+      </c>
+      <c r="D264" t="s">
+        <v>11</v>
+      </c>
+      <c r="E264" t="s">
+        <v>129</v>
+      </c>
+      <c r="F264" t="s">
+        <v>426</v>
+      </c>
+      <c r="G264" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7">
+      <c r="A265" s="1">
+        <v>13</v>
+      </c>
+      <c r="B265" t="s">
+        <v>8</v>
+      </c>
+      <c r="C265" t="s">
+        <v>6</v>
+      </c>
+      <c r="D265" t="s">
+        <v>11</v>
+      </c>
+      <c r="E265" t="s">
+        <v>130</v>
+      </c>
+      <c r="F265" t="s">
+        <v>427</v>
+      </c>
+      <c r="G265" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7">
+      <c r="A266" s="1">
+        <v>14</v>
+      </c>
+      <c r="B266" t="s">
+        <v>9</v>
+      </c>
+      <c r="C266" t="s">
+        <v>6</v>
+      </c>
+      <c r="D266" t="s">
+        <v>11</v>
+      </c>
+      <c r="E266" t="s">
+        <v>131</v>
+      </c>
+      <c r="F266" t="s">
+        <v>428</v>
+      </c>
+      <c r="G266" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7">
+      <c r="A267" s="1">
+        <v>15</v>
+      </c>
+      <c r="B267" t="s">
+        <v>6</v>
+      </c>
+      <c r="C267" t="s">
+        <v>6</v>
+      </c>
+      <c r="D267" t="s">
+        <v>11</v>
+      </c>
+      <c r="E267" t="s">
+        <v>132</v>
+      </c>
+      <c r="F267" t="s">
+        <v>429</v>
+      </c>
+      <c r="G267" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7">
+      <c r="A268" s="1">
+        <v>16</v>
+      </c>
+      <c r="B268" t="s">
+        <v>6</v>
+      </c>
+      <c r="C268" t="s">
+        <v>6</v>
+      </c>
+      <c r="D268" t="s">
+        <v>11</v>
+      </c>
+      <c r="E268" t="s">
+        <v>133</v>
+      </c>
+      <c r="F268" t="s">
+        <v>430</v>
+      </c>
+      <c r="G268" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7">
+      <c r="A269" s="1">
+        <v>17</v>
+      </c>
+      <c r="B269" t="s">
+        <v>7</v>
+      </c>
+      <c r="C269" t="s">
+        <v>6</v>
+      </c>
+      <c r="D269" t="s">
+        <v>11</v>
+      </c>
+      <c r="E269" t="s">
+        <v>134</v>
+      </c>
+      <c r="F269" t="s">
+        <v>431</v>
+      </c>
+      <c r="G269" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7">
+      <c r="A270" s="1">
+        <v>18</v>
+      </c>
+      <c r="B270" t="s">
+        <v>8</v>
+      </c>
+      <c r="C270" t="s">
+        <v>6</v>
+      </c>
+      <c r="D270" t="s">
+        <v>11</v>
+      </c>
+      <c r="E270" t="s">
+        <v>135</v>
+      </c>
+      <c r="F270" t="s">
+        <v>432</v>
+      </c>
+      <c r="G270" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7">
+      <c r="A271" s="1">
+        <v>19</v>
+      </c>
+      <c r="B271" t="s">
+        <v>7</v>
+      </c>
+      <c r="C271" t="s">
+        <v>6</v>
+      </c>
+      <c r="D271" t="s">
+        <v>11</v>
+      </c>
+      <c r="E271" t="s">
+        <v>136</v>
+      </c>
+      <c r="F271" t="s">
+        <v>433</v>
+      </c>
+      <c r="G271" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7">
+      <c r="A272" s="1">
+        <v>20</v>
+      </c>
+      <c r="B272" t="s">
+        <v>6</v>
+      </c>
+      <c r="C272" t="s">
+        <v>6</v>
+      </c>
+      <c r="D272" t="s">
+        <v>11</v>
+      </c>
+      <c r="E272" t="s">
+        <v>137</v>
+      </c>
+      <c r="F272" t="s">
+        <v>434</v>
+      </c>
+      <c r="G272" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7">
+      <c r="A273" s="1">
+        <v>21</v>
+      </c>
+      <c r="B273" t="s">
+        <v>9</v>
+      </c>
+      <c r="C273" t="s">
+        <v>6</v>
+      </c>
+      <c r="D273" t="s">
+        <v>11</v>
+      </c>
+      <c r="E273" t="s">
+        <v>138</v>
+      </c>
+      <c r="F273" t="s">
+        <v>435</v>
+      </c>
+      <c r="G273" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7">
+      <c r="A274" s="1">
+        <v>22</v>
+      </c>
+      <c r="B274" t="s">
+        <v>7</v>
+      </c>
+      <c r="C274" t="s">
+        <v>6</v>
+      </c>
+      <c r="D274" t="s">
+        <v>11</v>
+      </c>
+      <c r="E274" t="s">
+        <v>139</v>
+      </c>
+      <c r="F274" t="s">
+        <v>436</v>
+      </c>
+      <c r="G274" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7">
+      <c r="A275" s="1">
+        <v>23</v>
+      </c>
+      <c r="B275" t="s">
+        <v>9</v>
+      </c>
+      <c r="C275" t="s">
+        <v>6</v>
+      </c>
+      <c r="D275" t="s">
+        <v>11</v>
+      </c>
+      <c r="E275" t="s">
+        <v>140</v>
+      </c>
+      <c r="F275" t="s">
+        <v>437</v>
+      </c>
+      <c r="G275" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7">
+      <c r="A276" s="1">
+        <v>24</v>
+      </c>
+      <c r="B276" t="s">
+        <v>6</v>
+      </c>
+      <c r="C276" t="s">
+        <v>6</v>
+      </c>
+      <c r="D276" t="s">
+        <v>11</v>
+      </c>
+      <c r="E276" t="s">
+        <v>141</v>
+      </c>
+      <c r="F276" t="s">
+        <v>438</v>
+      </c>
+      <c r="G276" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7">
+      <c r="A277" s="1">
+        <v>25</v>
+      </c>
+      <c r="B277" t="s">
+        <v>8</v>
+      </c>
+      <c r="C277" t="s">
+        <v>6</v>
+      </c>
+      <c r="D277" t="s">
+        <v>11</v>
+      </c>
+      <c r="E277" t="s">
+        <v>142</v>
+      </c>
+      <c r="F277" t="s">
+        <v>439</v>
+      </c>
+      <c r="G277" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7">
+      <c r="A278" s="1">
+        <v>26</v>
+      </c>
+      <c r="B278" t="s">
+        <v>7</v>
+      </c>
+      <c r="C278" t="s">
+        <v>6</v>
+      </c>
+      <c r="D278" t="s">
+        <v>11</v>
+      </c>
+      <c r="E278" t="s">
+        <v>143</v>
+      </c>
+      <c r="F278" t="s">
+        <v>440</v>
+      </c>
+      <c r="G278" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7">
+      <c r="A279" s="1">
+        <v>27</v>
+      </c>
+      <c r="B279" t="s">
+        <v>6</v>
+      </c>
+      <c r="C279" t="s">
+        <v>6</v>
+      </c>
+      <c r="D279" t="s">
+        <v>11</v>
+      </c>
+      <c r="E279" t="s">
+        <v>144</v>
+      </c>
+      <c r="F279" t="s">
+        <v>441</v>
+      </c>
+      <c r="G279" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7">
+      <c r="A280" s="1">
+        <v>28</v>
+      </c>
+      <c r="B280" t="s">
+        <v>8</v>
+      </c>
+      <c r="C280" t="s">
+        <v>6</v>
+      </c>
+      <c r="D280" t="s">
+        <v>11</v>
+      </c>
+      <c r="E280" t="s">
+        <v>145</v>
+      </c>
+      <c r="F280" t="s">
+        <v>442</v>
+      </c>
+      <c r="G280" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7">
+      <c r="A281" s="1">
+        <v>29</v>
+      </c>
+      <c r="B281" t="s">
+        <v>7</v>
+      </c>
+      <c r="C281" t="s">
+        <v>6</v>
+      </c>
+      <c r="D281" t="s">
+        <v>11</v>
+      </c>
+      <c r="E281" t="s">
+        <v>146</v>
+      </c>
+      <c r="F281" t="s">
+        <v>443</v>
+      </c>
+      <c r="G281" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7">
+      <c r="A282" s="1">
+        <v>30</v>
+      </c>
+      <c r="B282" t="s">
+        <v>6</v>
+      </c>
+      <c r="C282" t="s">
+        <v>6</v>
+      </c>
+      <c r="D282" t="s">
+        <v>11</v>
+      </c>
+      <c r="E282" t="s">
+        <v>147</v>
+      </c>
+      <c r="F282" t="s">
+        <v>444</v>
+      </c>
+      <c r="G282" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7">
+      <c r="A283" s="1">
+        <v>31</v>
+      </c>
+      <c r="B283" t="s">
+        <v>8</v>
+      </c>
+      <c r="C283" t="s">
+        <v>6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>11</v>
+      </c>
+      <c r="E283" t="s">
+        <v>148</v>
+      </c>
+      <c r="F283" t="s">
+        <v>445</v>
+      </c>
+      <c r="G283" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7">
+      <c r="A284" s="1">
+        <v>32</v>
+      </c>
+      <c r="B284" t="s">
+        <v>6</v>
+      </c>
+      <c r="C284" t="s">
+        <v>6</v>
+      </c>
+      <c r="D284" t="s">
+        <v>11</v>
+      </c>
+      <c r="E284" t="s">
+        <v>149</v>
+      </c>
+      <c r="F284" t="s">
+        <v>446</v>
+      </c>
+      <c r="G284" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7">
+      <c r="A285" s="1">
+        <v>33</v>
+      </c>
+      <c r="B285" t="s">
+        <v>6</v>
+      </c>
+      <c r="C285" t="s">
+        <v>6</v>
+      </c>
+      <c r="D285" t="s">
+        <v>11</v>
+      </c>
+      <c r="E285" t="s">
+        <v>150</v>
+      </c>
+      <c r="F285" t="s">
+        <v>447</v>
+      </c>
+      <c r="G285" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7">
+      <c r="A286" s="1">
+        <v>34</v>
+      </c>
+      <c r="B286" t="s">
+        <v>6</v>
+      </c>
+      <c r="C286" t="s">
+        <v>6</v>
+      </c>
+      <c r="D286" t="s">
+        <v>11</v>
+      </c>
+      <c r="E286" t="s">
+        <v>151</v>
+      </c>
+      <c r="F286" t="s">
+        <v>448</v>
+      </c>
+      <c r="G286" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7">
+      <c r="A287" s="1">
+        <v>35</v>
+      </c>
+      <c r="B287" t="s">
+        <v>9</v>
+      </c>
+      <c r="C287" t="s">
+        <v>6</v>
+      </c>
+      <c r="D287" t="s">
+        <v>11</v>
+      </c>
+      <c r="E287" t="s">
+        <v>152</v>
+      </c>
+      <c r="F287" t="s">
+        <v>449</v>
+      </c>
+      <c r="G287" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7">
+      <c r="A288" s="1">
+        <v>36</v>
+      </c>
+      <c r="B288" t="s">
+        <v>8</v>
+      </c>
+      <c r="C288" t="s">
+        <v>6</v>
+      </c>
+      <c r="D288" t="s">
+        <v>11</v>
+      </c>
+      <c r="E288" t="s">
+        <v>153</v>
+      </c>
+      <c r="F288" t="s">
+        <v>450</v>
+      </c>
+      <c r="G288" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7">
+      <c r="A289" s="1">
+        <v>37</v>
+      </c>
+      <c r="B289" t="s">
+        <v>8</v>
+      </c>
+      <c r="C289" t="s">
+        <v>6</v>
+      </c>
+      <c r="D289" t="s">
+        <v>11</v>
+      </c>
+      <c r="E289" t="s">
+        <v>154</v>
+      </c>
+      <c r="F289" t="s">
+        <v>451</v>
+      </c>
+      <c r="G289" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7">
+      <c r="A290" s="1">
+        <v>38</v>
+      </c>
+      <c r="B290" t="s">
+        <v>9</v>
+      </c>
+      <c r="C290" t="s">
+        <v>6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>11</v>
+      </c>
+      <c r="E290" t="s">
+        <v>155</v>
+      </c>
+      <c r="F290" t="s">
+        <v>452</v>
+      </c>
+      <c r="G290" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7">
+      <c r="A291" s="1">
+        <v>39</v>
+      </c>
+      <c r="B291" t="s">
+        <v>9</v>
+      </c>
+      <c r="C291" t="s">
+        <v>6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>11</v>
+      </c>
+      <c r="E291" t="s">
+        <v>156</v>
+      </c>
+      <c r="F291" t="s">
+        <v>453</v>
+      </c>
+      <c r="G291" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7">
+      <c r="A292" s="1">
+        <v>40</v>
+      </c>
+      <c r="B292" t="s">
+        <v>8</v>
+      </c>
+      <c r="C292" t="s">
+        <v>6</v>
+      </c>
+      <c r="D292" t="s">
+        <v>11</v>
+      </c>
+      <c r="E292" t="s">
+        <v>157</v>
+      </c>
+      <c r="F292" t="s">
+        <v>454</v>
+      </c>
+      <c r="G292" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7">
+      <c r="A293" s="1">
+        <v>41</v>
+      </c>
+      <c r="B293" t="s">
+        <v>9</v>
+      </c>
+      <c r="C293" t="s">
+        <v>6</v>
+      </c>
+      <c r="D293" t="s">
+        <v>11</v>
+      </c>
+      <c r="E293" t="s">
+        <v>158</v>
+      </c>
+      <c r="F293" t="s">
+        <v>455</v>
+      </c>
+      <c r="G293" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7">
+      <c r="A294" s="1">
+        <v>42</v>
+      </c>
+      <c r="B294" t="s">
+        <v>8</v>
+      </c>
+      <c r="C294" t="s">
+        <v>6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>11</v>
+      </c>
+      <c r="E294" t="s">
+        <v>159</v>
+      </c>
+      <c r="F294" t="s">
+        <v>456</v>
+      </c>
+      <c r="G294" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7">
+      <c r="A295" s="1">
+        <v>43</v>
+      </c>
+      <c r="B295" t="s">
+        <v>9</v>
+      </c>
+      <c r="C295" t="s">
+        <v>6</v>
+      </c>
+      <c r="D295" t="s">
+        <v>11</v>
+      </c>
+      <c r="E295" t="s">
+        <v>160</v>
+      </c>
+      <c r="F295" t="s">
+        <v>457</v>
+      </c>
+      <c r="G295" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7">
+      <c r="A296" s="1">
+        <v>44</v>
+      </c>
+      <c r="B296" t="s">
+        <v>8</v>
+      </c>
+      <c r="C296" t="s">
+        <v>6</v>
+      </c>
+      <c r="D296" t="s">
+        <v>11</v>
+      </c>
+      <c r="E296" t="s">
+        <v>161</v>
+      </c>
+      <c r="F296" t="s">
+        <v>458</v>
+      </c>
+      <c r="G296" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7">
+      <c r="A297" s="1">
+        <v>45</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297" t="s">
+        <v>6</v>
+      </c>
+      <c r="D297" t="s">
+        <v>11</v>
+      </c>
+      <c r="E297" t="s">
+        <v>162</v>
+      </c>
+      <c r="F297" t="s">
+        <v>459</v>
+      </c>
+      <c r="G297" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7">
+      <c r="A298" s="1">
+        <v>46</v>
+      </c>
+      <c r="B298" t="s">
+        <v>6</v>
+      </c>
+      <c r="C298" t="s">
+        <v>6</v>
+      </c>
+      <c r="D298" t="s">
+        <v>11</v>
+      </c>
+      <c r="E298" t="s">
+        <v>163</v>
+      </c>
+      <c r="F298" t="s">
+        <v>460</v>
+      </c>
+      <c r="G298" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7">
+      <c r="A299" s="1">
+        <v>47</v>
+      </c>
+      <c r="B299" t="s">
+        <v>8</v>
+      </c>
+      <c r="C299" t="s">
+        <v>6</v>
+      </c>
+      <c r="D299" t="s">
+        <v>11</v>
+      </c>
+      <c r="E299" t="s">
+        <v>164</v>
+      </c>
+      <c r="F299" t="s">
+        <v>461</v>
+      </c>
+      <c r="G299" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7">
+      <c r="A300" s="1">
+        <v>48</v>
+      </c>
+      <c r="B300" t="s">
+        <v>9</v>
+      </c>
+      <c r="C300" t="s">
+        <v>6</v>
+      </c>
+      <c r="D300" t="s">
+        <v>11</v>
+      </c>
+      <c r="E300" t="s">
+        <v>165</v>
+      </c>
+      <c r="F300" t="s">
+        <v>462</v>
+      </c>
+      <c r="G300" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7">
+      <c r="A301" s="1">
+        <v>49</v>
+      </c>
+      <c r="B301" t="s">
+        <v>7</v>
+      </c>
+      <c r="C301" t="s">
+        <v>6</v>
+      </c>
+      <c r="D301" t="s">
+        <v>11</v>
+      </c>
+      <c r="E301" t="s">
+        <v>166</v>
+      </c>
+      <c r="F301" t="s">
+        <v>463</v>
+      </c>
+      <c r="G301" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7">
+      <c r="A302" s="1">
+        <v>0</v>
+      </c>
+      <c r="B302" t="s">
+        <v>6</v>
+      </c>
+      <c r="C302" t="s">
+        <v>6</v>
+      </c>
+      <c r="D302" t="s">
+        <v>11</v>
+      </c>
+      <c r="E302" t="s">
+        <v>117</v>
+      </c>
+      <c r="F302" t="s">
+        <v>414</v>
+      </c>
+      <c r="G302" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7">
+      <c r="A303" s="1">
+        <v>1</v>
+      </c>
+      <c r="B303" t="s">
+        <v>7</v>
+      </c>
+      <c r="C303" t="s">
+        <v>6</v>
+      </c>
+      <c r="D303" t="s">
+        <v>11</v>
+      </c>
+      <c r="E303" t="s">
+        <v>118</v>
+      </c>
+      <c r="F303" t="s">
+        <v>415</v>
+      </c>
+      <c r="G303" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7">
+      <c r="A304" s="1">
+        <v>2</v>
+      </c>
+      <c r="B304" t="s">
+        <v>8</v>
+      </c>
+      <c r="C304" t="s">
+        <v>6</v>
+      </c>
+      <c r="D304" t="s">
+        <v>11</v>
+      </c>
+      <c r="E304" t="s">
+        <v>119</v>
+      </c>
+      <c r="F304" t="s">
+        <v>416</v>
+      </c>
+      <c r="G304" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7">
+      <c r="A305" s="1">
+        <v>3</v>
+      </c>
+      <c r="B305" t="s">
+        <v>9</v>
+      </c>
+      <c r="C305" t="s">
+        <v>6</v>
+      </c>
+      <c r="D305" t="s">
+        <v>11</v>
+      </c>
+      <c r="E305" t="s">
+        <v>120</v>
+      </c>
+      <c r="F305" t="s">
+        <v>417</v>
+      </c>
+      <c r="G305" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7">
+      <c r="A306" s="1">
+        <v>4</v>
+      </c>
+      <c r="B306" t="s">
+        <v>7</v>
+      </c>
+      <c r="C306" t="s">
+        <v>6</v>
+      </c>
+      <c r="D306" t="s">
+        <v>11</v>
+      </c>
+      <c r="E306" t="s">
+        <v>121</v>
+      </c>
+      <c r="F306" t="s">
+        <v>418</v>
+      </c>
+      <c r="G306" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7">
+      <c r="A307" s="1">
+        <v>5</v>
+      </c>
+      <c r="B307" t="s">
+        <v>9</v>
+      </c>
+      <c r="C307" t="s">
+        <v>6</v>
+      </c>
+      <c r="D307" t="s">
+        <v>11</v>
+      </c>
+      <c r="E307" t="s">
+        <v>122</v>
+      </c>
+      <c r="F307" t="s">
+        <v>419</v>
+      </c>
+      <c r="G307" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7">
+      <c r="A308" s="1">
+        <v>6</v>
+      </c>
+      <c r="B308" t="s">
+        <v>8</v>
+      </c>
+      <c r="C308" t="s">
+        <v>6</v>
+      </c>
+      <c r="D308" t="s">
+        <v>11</v>
+      </c>
+      <c r="E308" t="s">
+        <v>123</v>
+      </c>
+      <c r="F308" t="s">
+        <v>420</v>
+      </c>
+      <c r="G308" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7">
+      <c r="A309" s="1">
+        <v>7</v>
+      </c>
+      <c r="B309" t="s">
+        <v>7</v>
+      </c>
+      <c r="C309" t="s">
+        <v>6</v>
+      </c>
+      <c r="D309" t="s">
+        <v>11</v>
+      </c>
+      <c r="E309" t="s">
+        <v>124</v>
+      </c>
+      <c r="F309" t="s">
+        <v>421</v>
+      </c>
+      <c r="G309" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7">
+      <c r="A310" s="1">
+        <v>8</v>
+      </c>
+      <c r="B310" t="s">
+        <v>9</v>
+      </c>
+      <c r="C310" t="s">
+        <v>6</v>
+      </c>
+      <c r="D310" t="s">
+        <v>11</v>
+      </c>
+      <c r="E310" t="s">
+        <v>125</v>
+      </c>
+      <c r="F310" t="s">
+        <v>422</v>
+      </c>
+      <c r="G310" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7">
+      <c r="A311" s="1">
+        <v>9</v>
+      </c>
+      <c r="B311" t="s">
+        <v>9</v>
+      </c>
+      <c r="C311" t="s">
+        <v>6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>11</v>
+      </c>
+      <c r="E311" t="s">
+        <v>126</v>
+      </c>
+      <c r="F311" t="s">
+        <v>423</v>
+      </c>
+      <c r="G311" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7">
+      <c r="A312" s="1">
+        <v>10</v>
+      </c>
+      <c r="B312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C312" t="s">
+        <v>6</v>
+      </c>
+      <c r="D312" t="s">
+        <v>11</v>
+      </c>
+      <c r="E312" t="s">
+        <v>127</v>
+      </c>
+      <c r="F312" t="s">
+        <v>424</v>
+      </c>
+      <c r="G312" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7">
+      <c r="A313" s="1">
+        <v>11</v>
+      </c>
+      <c r="B313" t="s">
+        <v>6</v>
+      </c>
+      <c r="C313" t="s">
+        <v>6</v>
+      </c>
+      <c r="D313" t="s">
+        <v>11</v>
+      </c>
+      <c r="E313" t="s">
+        <v>128</v>
+      </c>
+      <c r="F313" t="s">
+        <v>425</v>
+      </c>
+      <c r="G313" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7">
+      <c r="A314" s="1">
+        <v>12</v>
+      </c>
+      <c r="B314" t="s">
+        <v>7</v>
+      </c>
+      <c r="C314" t="s">
+        <v>6</v>
+      </c>
+      <c r="D314" t="s">
+        <v>11</v>
+      </c>
+      <c r="E314" t="s">
+        <v>129</v>
+      </c>
+      <c r="F314" t="s">
+        <v>426</v>
+      </c>
+      <c r="G314" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7">
+      <c r="A315" s="1">
+        <v>13</v>
+      </c>
+      <c r="B315" t="s">
+        <v>8</v>
+      </c>
+      <c r="C315" t="s">
+        <v>6</v>
+      </c>
+      <c r="D315" t="s">
+        <v>11</v>
+      </c>
+      <c r="E315" t="s">
+        <v>130</v>
+      </c>
+      <c r="F315" t="s">
+        <v>427</v>
+      </c>
+      <c r="G315" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7">
+      <c r="A316" s="1">
+        <v>14</v>
+      </c>
+      <c r="B316" t="s">
+        <v>9</v>
+      </c>
+      <c r="C316" t="s">
+        <v>6</v>
+      </c>
+      <c r="D316" t="s">
+        <v>11</v>
+      </c>
+      <c r="E316" t="s">
+        <v>131</v>
+      </c>
+      <c r="F316" t="s">
+        <v>428</v>
+      </c>
+      <c r="G316" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7">
+      <c r="A317" s="1">
+        <v>15</v>
+      </c>
+      <c r="B317" t="s">
+        <v>6</v>
+      </c>
+      <c r="C317" t="s">
+        <v>6</v>
+      </c>
+      <c r="D317" t="s">
+        <v>11</v>
+      </c>
+      <c r="E317" t="s">
+        <v>132</v>
+      </c>
+      <c r="F317" t="s">
+        <v>429</v>
+      </c>
+      <c r="G317" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7">
+      <c r="A318" s="1">
+        <v>16</v>
+      </c>
+      <c r="B318" t="s">
+        <v>6</v>
+      </c>
+      <c r="C318" t="s">
+        <v>6</v>
+      </c>
+      <c r="D318" t="s">
+        <v>11</v>
+      </c>
+      <c r="E318" t="s">
+        <v>133</v>
+      </c>
+      <c r="F318" t="s">
+        <v>430</v>
+      </c>
+      <c r="G318" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7">
+      <c r="A319" s="1">
+        <v>17</v>
+      </c>
+      <c r="B319" t="s">
+        <v>7</v>
+      </c>
+      <c r="C319" t="s">
+        <v>6</v>
+      </c>
+      <c r="D319" t="s">
+        <v>11</v>
+      </c>
+      <c r="E319" t="s">
+        <v>134</v>
+      </c>
+      <c r="F319" t="s">
+        <v>431</v>
+      </c>
+      <c r="G319" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7">
+      <c r="A320" s="1">
+        <v>18</v>
+      </c>
+      <c r="B320" t="s">
+        <v>8</v>
+      </c>
+      <c r="C320" t="s">
+        <v>6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>11</v>
+      </c>
+      <c r="E320" t="s">
+        <v>135</v>
+      </c>
+      <c r="F320" t="s">
+        <v>432</v>
+      </c>
+      <c r="G320" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="321" spans="1:7">
+      <c r="A321" s="1">
+        <v>19</v>
+      </c>
+      <c r="B321" t="s">
+        <v>7</v>
+      </c>
+      <c r="C321" t="s">
+        <v>6</v>
+      </c>
+      <c r="D321" t="s">
+        <v>11</v>
+      </c>
+      <c r="E321" t="s">
+        <v>136</v>
+      </c>
+      <c r="F321" t="s">
+        <v>433</v>
+      </c>
+      <c r="G321" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="322" spans="1:7">
+      <c r="A322" s="1">
+        <v>20</v>
+      </c>
+      <c r="B322" t="s">
+        <v>6</v>
+      </c>
+      <c r="C322" t="s">
+        <v>6</v>
+      </c>
+      <c r="D322" t="s">
+        <v>11</v>
+      </c>
+      <c r="E322" t="s">
+        <v>137</v>
+      </c>
+      <c r="F322" t="s">
+        <v>434</v>
+      </c>
+      <c r="G322" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="323" spans="1:7">
+      <c r="A323" s="1">
+        <v>21</v>
+      </c>
+      <c r="B323" t="s">
+        <v>9</v>
+      </c>
+      <c r="C323" t="s">
+        <v>6</v>
+      </c>
+      <c r="D323" t="s">
+        <v>11</v>
+      </c>
+      <c r="E323" t="s">
+        <v>138</v>
+      </c>
+      <c r="F323" t="s">
+        <v>435</v>
+      </c>
+      <c r="G323" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="324" spans="1:7">
+      <c r="A324" s="1">
+        <v>22</v>
+      </c>
+      <c r="B324" t="s">
+        <v>7</v>
+      </c>
+      <c r="C324" t="s">
+        <v>6</v>
+      </c>
+      <c r="D324" t="s">
+        <v>11</v>
+      </c>
+      <c r="E324" t="s">
+        <v>139</v>
+      </c>
+      <c r="F324" t="s">
+        <v>436</v>
+      </c>
+      <c r="G324" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="325" spans="1:7">
+      <c r="A325" s="1">
+        <v>23</v>
+      </c>
+      <c r="B325" t="s">
+        <v>9</v>
+      </c>
+      <c r="C325" t="s">
+        <v>6</v>
+      </c>
+      <c r="D325" t="s">
+        <v>11</v>
+      </c>
+      <c r="E325" t="s">
+        <v>140</v>
+      </c>
+      <c r="F325" t="s">
+        <v>437</v>
+      </c>
+      <c r="G325" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="326" spans="1:7">
+      <c r="A326" s="1">
+        <v>24</v>
+      </c>
+      <c r="B326" t="s">
+        <v>6</v>
+      </c>
+      <c r="C326" t="s">
+        <v>6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>11</v>
+      </c>
+      <c r="E326" t="s">
+        <v>141</v>
+      </c>
+      <c r="F326" t="s">
+        <v>438</v>
+      </c>
+      <c r="G326" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="327" spans="1:7">
+      <c r="A327" s="1">
+        <v>25</v>
+      </c>
+      <c r="B327" t="s">
+        <v>8</v>
+      </c>
+      <c r="C327" t="s">
+        <v>6</v>
+      </c>
+      <c r="D327" t="s">
+        <v>11</v>
+      </c>
+      <c r="E327" t="s">
+        <v>142</v>
+      </c>
+      <c r="F327" t="s">
+        <v>439</v>
+      </c>
+      <c r="G327" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="328" spans="1:7">
+      <c r="A328" s="1">
+        <v>26</v>
+      </c>
+      <c r="B328" t="s">
+        <v>7</v>
+      </c>
+      <c r="C328" t="s">
+        <v>6</v>
+      </c>
+      <c r="D328" t="s">
+        <v>11</v>
+      </c>
+      <c r="E328" t="s">
+        <v>143</v>
+      </c>
+      <c r="F328" t="s">
+        <v>440</v>
+      </c>
+      <c r="G328" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="329" spans="1:7">
+      <c r="A329" s="1">
+        <v>27</v>
+      </c>
+      <c r="B329" t="s">
+        <v>6</v>
+      </c>
+      <c r="C329" t="s">
+        <v>6</v>
+      </c>
+      <c r="D329" t="s">
+        <v>11</v>
+      </c>
+      <c r="E329" t="s">
+        <v>144</v>
+      </c>
+      <c r="F329" t="s">
+        <v>441</v>
+      </c>
+      <c r="G329" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="330" spans="1:7">
+      <c r="A330" s="1">
+        <v>28</v>
+      </c>
+      <c r="B330" t="s">
+        <v>8</v>
+      </c>
+      <c r="C330" t="s">
+        <v>6</v>
+      </c>
+      <c r="D330" t="s">
+        <v>11</v>
+      </c>
+      <c r="E330" t="s">
+        <v>145</v>
+      </c>
+      <c r="F330" t="s">
+        <v>442</v>
+      </c>
+      <c r="G330" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="331" spans="1:7">
+      <c r="A331" s="1">
+        <v>29</v>
+      </c>
+      <c r="B331" t="s">
+        <v>7</v>
+      </c>
+      <c r="C331" t="s">
+        <v>6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>11</v>
+      </c>
+      <c r="E331" t="s">
+        <v>146</v>
+      </c>
+      <c r="F331" t="s">
+        <v>443</v>
+      </c>
+      <c r="G331" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="332" spans="1:7">
+      <c r="A332" s="1">
+        <v>30</v>
+      </c>
+      <c r="B332" t="s">
+        <v>6</v>
+      </c>
+      <c r="C332" t="s">
+        <v>6</v>
+      </c>
+      <c r="D332" t="s">
+        <v>11</v>
+      </c>
+      <c r="E332" t="s">
+        <v>147</v>
+      </c>
+      <c r="F332" t="s">
+        <v>444</v>
+      </c>
+      <c r="G332" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="333" spans="1:7">
+      <c r="A333" s="1">
+        <v>31</v>
+      </c>
+      <c r="B333" t="s">
+        <v>8</v>
+      </c>
+      <c r="C333" t="s">
+        <v>6</v>
+      </c>
+      <c r="D333" t="s">
+        <v>11</v>
+      </c>
+      <c r="E333" t="s">
+        <v>148</v>
+      </c>
+      <c r="F333" t="s">
+        <v>445</v>
+      </c>
+      <c r="G333" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="334" spans="1:7">
+      <c r="A334" s="1">
+        <v>32</v>
+      </c>
+      <c r="B334" t="s">
+        <v>6</v>
+      </c>
+      <c r="C334" t="s">
+        <v>6</v>
+      </c>
+      <c r="D334" t="s">
+        <v>11</v>
+      </c>
+      <c r="E334" t="s">
+        <v>149</v>
+      </c>
+      <c r="F334" t="s">
+        <v>446</v>
+      </c>
+      <c r="G334" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="335" spans="1:7">
+      <c r="A335" s="1">
+        <v>33</v>
+      </c>
+      <c r="B335" t="s">
+        <v>6</v>
+      </c>
+      <c r="C335" t="s">
+        <v>6</v>
+      </c>
+      <c r="D335" t="s">
+        <v>11</v>
+      </c>
+      <c r="E335" t="s">
+        <v>150</v>
+      </c>
+      <c r="F335" t="s">
+        <v>447</v>
+      </c>
+      <c r="G335" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="336" spans="1:7">
+      <c r="A336" s="1">
+        <v>34</v>
+      </c>
+      <c r="B336" t="s">
+        <v>6</v>
+      </c>
+      <c r="C336" t="s">
+        <v>6</v>
+      </c>
+      <c r="D336" t="s">
+        <v>11</v>
+      </c>
+      <c r="E336" t="s">
+        <v>151</v>
+      </c>
+      <c r="F336" t="s">
+        <v>448</v>
+      </c>
+      <c r="G336" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7">
+      <c r="A337" s="1">
+        <v>35</v>
+      </c>
+      <c r="B337" t="s">
+        <v>9</v>
+      </c>
+      <c r="C337" t="s">
+        <v>6</v>
+      </c>
+      <c r="D337" t="s">
+        <v>11</v>
+      </c>
+      <c r="E337" t="s">
+        <v>152</v>
+      </c>
+      <c r="F337" t="s">
+        <v>449</v>
+      </c>
+      <c r="G337" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7">
+      <c r="A338" s="1">
+        <v>36</v>
+      </c>
+      <c r="B338" t="s">
+        <v>8</v>
+      </c>
+      <c r="C338" t="s">
+        <v>6</v>
+      </c>
+      <c r="D338" t="s">
+        <v>11</v>
+      </c>
+      <c r="E338" t="s">
+        <v>153</v>
+      </c>
+      <c r="F338" t="s">
+        <v>450</v>
+      </c>
+      <c r="G338" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7">
+      <c r="A339" s="1">
+        <v>37</v>
+      </c>
+      <c r="B339" t="s">
+        <v>8</v>
+      </c>
+      <c r="C339" t="s">
+        <v>6</v>
+      </c>
+      <c r="D339" t="s">
+        <v>11</v>
+      </c>
+      <c r="E339" t="s">
+        <v>154</v>
+      </c>
+      <c r="F339" t="s">
+        <v>451</v>
+      </c>
+      <c r="G339" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7">
+      <c r="A340" s="1">
+        <v>38</v>
+      </c>
+      <c r="B340" t="s">
+        <v>9</v>
+      </c>
+      <c r="C340" t="s">
+        <v>6</v>
+      </c>
+      <c r="D340" t="s">
+        <v>11</v>
+      </c>
+      <c r="E340" t="s">
+        <v>155</v>
+      </c>
+      <c r="F340" t="s">
+        <v>452</v>
+      </c>
+      <c r="G340" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7">
+      <c r="A341" s="1">
+        <v>39</v>
+      </c>
+      <c r="B341" t="s">
+        <v>9</v>
+      </c>
+      <c r="C341" t="s">
+        <v>6</v>
+      </c>
+      <c r="D341" t="s">
+        <v>11</v>
+      </c>
+      <c r="E341" t="s">
+        <v>156</v>
+      </c>
+      <c r="F341" t="s">
+        <v>453</v>
+      </c>
+      <c r="G341" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7">
+      <c r="A342" s="1">
+        <v>40</v>
+      </c>
+      <c r="B342" t="s">
+        <v>8</v>
+      </c>
+      <c r="C342" t="s">
+        <v>6</v>
+      </c>
+      <c r="D342" t="s">
+        <v>11</v>
+      </c>
+      <c r="E342" t="s">
+        <v>157</v>
+      </c>
+      <c r="F342" t="s">
+        <v>454</v>
+      </c>
+      <c r="G342" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7">
+      <c r="A343" s="1">
+        <v>41</v>
+      </c>
+      <c r="B343" t="s">
+        <v>9</v>
+      </c>
+      <c r="C343" t="s">
+        <v>6</v>
+      </c>
+      <c r="D343" t="s">
+        <v>11</v>
+      </c>
+      <c r="E343" t="s">
+        <v>158</v>
+      </c>
+      <c r="F343" t="s">
+        <v>455</v>
+      </c>
+      <c r="G343" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7">
+      <c r="A344" s="1">
+        <v>42</v>
+      </c>
+      <c r="B344" t="s">
+        <v>8</v>
+      </c>
+      <c r="C344" t="s">
+        <v>6</v>
+      </c>
+      <c r="D344" t="s">
+        <v>11</v>
+      </c>
+      <c r="E344" t="s">
+        <v>159</v>
+      </c>
+      <c r="F344" t="s">
+        <v>456</v>
+      </c>
+      <c r="G344" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7">
+      <c r="A345" s="1">
+        <v>43</v>
+      </c>
+      <c r="B345" t="s">
+        <v>9</v>
+      </c>
+      <c r="C345" t="s">
+        <v>6</v>
+      </c>
+      <c r="D345" t="s">
+        <v>11</v>
+      </c>
+      <c r="E345" t="s">
+        <v>160</v>
+      </c>
+      <c r="F345" t="s">
+        <v>457</v>
+      </c>
+      <c r="G345" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7">
+      <c r="A346" s="1">
+        <v>44</v>
+      </c>
+      <c r="B346" t="s">
+        <v>8</v>
+      </c>
+      <c r="C346" t="s">
+        <v>6</v>
+      </c>
+      <c r="D346" t="s">
+        <v>11</v>
+      </c>
+      <c r="E346" t="s">
+        <v>161</v>
+      </c>
+      <c r="F346" t="s">
+        <v>458</v>
+      </c>
+      <c r="G346" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7">
+      <c r="A347" s="1">
+        <v>45</v>
+      </c>
+      <c r="B347" t="s">
+        <v>7</v>
+      </c>
+      <c r="C347" t="s">
+        <v>6</v>
+      </c>
+      <c r="D347" t="s">
+        <v>11</v>
+      </c>
+      <c r="E347" t="s">
+        <v>162</v>
+      </c>
+      <c r="F347" t="s">
+        <v>459</v>
+      </c>
+      <c r="G347" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7">
+      <c r="A348" s="1">
+        <v>46</v>
+      </c>
+      <c r="B348" t="s">
+        <v>6</v>
+      </c>
+      <c r="C348" t="s">
+        <v>6</v>
+      </c>
+      <c r="D348" t="s">
+        <v>11</v>
+      </c>
+      <c r="E348" t="s">
+        <v>163</v>
+      </c>
+      <c r="F348" t="s">
+        <v>460</v>
+      </c>
+      <c r="G348" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7">
+      <c r="A349" s="1">
+        <v>47</v>
+      </c>
+      <c r="B349" t="s">
+        <v>8</v>
+      </c>
+      <c r="C349" t="s">
+        <v>6</v>
+      </c>
+      <c r="D349" t="s">
+        <v>11</v>
+      </c>
+      <c r="E349" t="s">
+        <v>164</v>
+      </c>
+      <c r="F349" t="s">
+        <v>461</v>
+      </c>
+      <c r="G349" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7">
+      <c r="A350" s="1">
+        <v>48</v>
+      </c>
+      <c r="B350" t="s">
+        <v>9</v>
+      </c>
+      <c r="C350" t="s">
+        <v>6</v>
+      </c>
+      <c r="D350" t="s">
+        <v>11</v>
+      </c>
+      <c r="E350" t="s">
+        <v>165</v>
+      </c>
+      <c r="F350" t="s">
+        <v>462</v>
+      </c>
+      <c r="G350" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7">
+      <c r="A351" s="1">
+        <v>49</v>
+      </c>
+      <c r="B351" t="s">
+        <v>7</v>
+      </c>
+      <c r="C351" t="s">
+        <v>6</v>
+      </c>
+      <c r="D351" t="s">
+        <v>11</v>
+      </c>
+      <c r="E351" t="s">
+        <v>166</v>
+      </c>
+      <c r="F351" t="s">
+        <v>463</v>
+      </c>
+      <c r="G351" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7">
+      <c r="A352" s="1">
+        <v>0</v>
+      </c>
+      <c r="B352" t="s">
+        <v>8</v>
+      </c>
+      <c r="C352" t="s">
+        <v>6</v>
+      </c>
+      <c r="D352" t="s">
+        <v>12</v>
+      </c>
+      <c r="E352" t="s">
+        <v>167</v>
+      </c>
+      <c r="F352" t="s">
+        <v>464</v>
+      </c>
+      <c r="G352" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7">
+      <c r="A353" s="1">
+        <v>1</v>
+      </c>
+      <c r="B353" t="s">
+        <v>8</v>
+      </c>
+      <c r="C353" t="s">
+        <v>6</v>
+      </c>
+      <c r="D353" t="s">
+        <v>12</v>
+      </c>
+      <c r="E353" t="s">
+        <v>168</v>
+      </c>
+      <c r="F353" t="s">
+        <v>465</v>
+      </c>
+      <c r="G353" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7">
+      <c r="A354" s="1">
+        <v>2</v>
+      </c>
+      <c r="B354" t="s">
+        <v>8</v>
+      </c>
+      <c r="C354" t="s">
+        <v>6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>12</v>
+      </c>
+      <c r="E354" t="s">
+        <v>169</v>
+      </c>
+      <c r="F354" t="s">
+        <v>466</v>
+      </c>
+      <c r="G354" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7">
+      <c r="A355" s="1">
+        <v>3</v>
+      </c>
+      <c r="B355" t="s">
+        <v>9</v>
+      </c>
+      <c r="C355" t="s">
+        <v>6</v>
+      </c>
+      <c r="D355" t="s">
+        <v>12</v>
+      </c>
+      <c r="E355" t="s">
+        <v>170</v>
+      </c>
+      <c r="F355" t="s">
+        <v>467</v>
+      </c>
+      <c r="G355" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7">
+      <c r="A356" s="1">
+        <v>4</v>
+      </c>
+      <c r="B356" t="s">
+        <v>7</v>
+      </c>
+      <c r="C356" t="s">
+        <v>6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>12</v>
+      </c>
+      <c r="E356" t="s">
+        <v>171</v>
+      </c>
+      <c r="F356" t="s">
+        <v>468</v>
+      </c>
+      <c r="G356" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7">
+      <c r="A357" s="1">
+        <v>5</v>
+      </c>
+      <c r="B357" t="s">
+        <v>7</v>
+      </c>
+      <c r="C357" t="s">
+        <v>6</v>
+      </c>
+      <c r="D357" t="s">
+        <v>12</v>
+      </c>
+      <c r="E357" t="s">
+        <v>172</v>
+      </c>
+      <c r="F357" t="s">
+        <v>469</v>
+      </c>
+      <c r="G357" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7">
+      <c r="A358" s="1">
+        <v>6</v>
+      </c>
+      <c r="B358" t="s">
+        <v>6</v>
+      </c>
+      <c r="C358" t="s">
+        <v>6</v>
+      </c>
+      <c r="D358" t="s">
+        <v>12</v>
+      </c>
+      <c r="E358" t="s">
+        <v>173</v>
+      </c>
+      <c r="F358" t="s">
+        <v>470</v>
+      </c>
+      <c r="G358" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7">
+      <c r="A359" s="1">
+        <v>7</v>
+      </c>
+      <c r="B359" t="s">
+        <v>9</v>
+      </c>
+      <c r="C359" t="s">
+        <v>6</v>
+      </c>
+      <c r="D359" t="s">
+        <v>12</v>
+      </c>
+      <c r="E359" t="s">
+        <v>174</v>
+      </c>
+      <c r="F359" t="s">
+        <v>471</v>
+      </c>
+      <c r="G359" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7">
+      <c r="A360" s="1">
+        <v>8</v>
+      </c>
+      <c r="B360" t="s">
+        <v>9</v>
+      </c>
+      <c r="C360" t="s">
+        <v>6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>12</v>
+      </c>
+      <c r="E360" t="s">
+        <v>175</v>
+      </c>
+      <c r="F360" t="s">
+        <v>472</v>
+      </c>
+      <c r="G360" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7">
+      <c r="A361" s="1">
+        <v>9</v>
+      </c>
+      <c r="B361" t="s">
+        <v>7</v>
+      </c>
+      <c r="C361" t="s">
+        <v>6</v>
+      </c>
+      <c r="D361" t="s">
+        <v>12</v>
+      </c>
+      <c r="E361" t="s">
+        <v>176</v>
+      </c>
+      <c r="F361" t="s">
+        <v>473</v>
+      </c>
+      <c r="G361" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7">
+      <c r="A362" s="1">
+        <v>10</v>
+      </c>
+      <c r="B362" t="s">
+        <v>6</v>
+      </c>
+      <c r="C362" t="s">
+        <v>6</v>
+      </c>
+      <c r="D362" t="s">
+        <v>12</v>
+      </c>
+      <c r="E362" t="s">
+        <v>177</v>
+      </c>
+      <c r="F362" t="s">
+        <v>474</v>
+      </c>
+      <c r="G362" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7">
+      <c r="A363" s="1">
+        <v>11</v>
+      </c>
+      <c r="B363" t="s">
+        <v>9</v>
+      </c>
+      <c r="C363" t="s">
+        <v>6</v>
+      </c>
+      <c r="D363" t="s">
+        <v>12</v>
+      </c>
+      <c r="E363" t="s">
+        <v>178</v>
+      </c>
+      <c r="F363" t="s">
+        <v>475</v>
+      </c>
+      <c r="G363" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7">
+      <c r="A364" s="1">
+        <v>12</v>
+      </c>
+      <c r="B364" t="s">
+        <v>9</v>
+      </c>
+      <c r="C364" t="s">
+        <v>6</v>
+      </c>
+      <c r="D364" t="s">
+        <v>12</v>
+      </c>
+      <c r="E364" t="s">
+        <v>179</v>
+      </c>
+      <c r="F364" t="s">
+        <v>476</v>
+      </c>
+      <c r="G364" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7">
+      <c r="A365" s="1">
+        <v>13</v>
+      </c>
+      <c r="B365" t="s">
+        <v>8</v>
+      </c>
+      <c r="C365" t="s">
+        <v>6</v>
+      </c>
+      <c r="D365" t="s">
+        <v>12</v>
+      </c>
+      <c r="E365" t="s">
+        <v>180</v>
+      </c>
+      <c r="F365" t="s">
+        <v>477</v>
+      </c>
+      <c r="G365" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7">
+      <c r="A366" s="1">
+        <v>14</v>
+      </c>
+      <c r="B366" t="s">
+        <v>7</v>
+      </c>
+      <c r="C366" t="s">
+        <v>6</v>
+      </c>
+      <c r="D366" t="s">
+        <v>12</v>
+      </c>
+      <c r="E366" t="s">
+        <v>181</v>
+      </c>
+      <c r="F366" t="s">
+        <v>478</v>
+      </c>
+      <c r="G366" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7">
+      <c r="A367" s="1">
+        <v>15</v>
+      </c>
+      <c r="B367" t="s">
+        <v>9</v>
+      </c>
+      <c r="C367" t="s">
+        <v>6</v>
+      </c>
+      <c r="D367" t="s">
+        <v>12</v>
+      </c>
+      <c r="E367" t="s">
+        <v>182</v>
+      </c>
+      <c r="F367" t="s">
+        <v>479</v>
+      </c>
+      <c r="G367" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7">
+      <c r="A368" s="1">
+        <v>16</v>
+      </c>
+      <c r="B368" t="s">
+        <v>8</v>
+      </c>
+      <c r="C368" t="s">
+        <v>6</v>
+      </c>
+      <c r="D368" t="s">
+        <v>12</v>
+      </c>
+      <c r="E368" t="s">
+        <v>183</v>
+      </c>
+      <c r="F368" t="s">
+        <v>480</v>
+      </c>
+      <c r="G368" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7">
+      <c r="A369" s="1">
+        <v>17</v>
+      </c>
+      <c r="B369" t="s">
+        <v>7</v>
+      </c>
+      <c r="C369" t="s">
+        <v>6</v>
+      </c>
+      <c r="D369" t="s">
+        <v>12</v>
+      </c>
+      <c r="E369" t="s">
+        <v>184</v>
+      </c>
+      <c r="F369" t="s">
+        <v>481</v>
+      </c>
+      <c r="G369" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7">
+      <c r="A370" s="1">
+        <v>18</v>
+      </c>
+      <c r="B370" t="s">
+        <v>8</v>
+      </c>
+      <c r="C370" t="s">
+        <v>6</v>
+      </c>
+      <c r="D370" t="s">
+        <v>12</v>
+      </c>
+      <c r="E370" t="s">
+        <v>185</v>
+      </c>
+      <c r="F370" t="s">
+        <v>482</v>
+      </c>
+      <c r="G370" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7">
+      <c r="A371" s="1">
+        <v>19</v>
+      </c>
+      <c r="B371" t="s">
+        <v>9</v>
+      </c>
+      <c r="C371" t="s">
+        <v>6</v>
+      </c>
+      <c r="D371" t="s">
+        <v>12</v>
+      </c>
+      <c r="E371" t="s">
+        <v>186</v>
+      </c>
+      <c r="F371" t="s">
+        <v>483</v>
+      </c>
+      <c r="G371" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7">
+      <c r="A372" s="1">
+        <v>20</v>
+      </c>
+      <c r="B372" t="s">
+        <v>7</v>
+      </c>
+      <c r="C372" t="s">
+        <v>6</v>
+      </c>
+      <c r="D372" t="s">
+        <v>12</v>
+      </c>
+      <c r="E372" t="s">
+        <v>187</v>
+      </c>
+      <c r="F372" t="s">
+        <v>484</v>
+      </c>
+      <c r="G372" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7">
+      <c r="A373" s="1">
+        <v>21</v>
+      </c>
+      <c r="B373" t="s">
+        <v>7</v>
+      </c>
+      <c r="C373" t="s">
+        <v>6</v>
+      </c>
+      <c r="D373" t="s">
+        <v>12</v>
+      </c>
+      <c r="E373" t="s">
+        <v>188</v>
+      </c>
+      <c r="F373" t="s">
+        <v>485</v>
+      </c>
+      <c r="G373" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7">
+      <c r="A374" s="1">
+        <v>22</v>
+      </c>
+      <c r="B374" t="s">
+        <v>9</v>
+      </c>
+      <c r="C374" t="s">
+        <v>6</v>
+      </c>
+      <c r="D374" t="s">
+        <v>12</v>
+      </c>
+      <c r="E374" t="s">
+        <v>189</v>
+      </c>
+      <c r="F374" t="s">
+        <v>486</v>
+      </c>
+      <c r="G374" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7">
+      <c r="A375" s="1">
+        <v>23</v>
+      </c>
+      <c r="B375" t="s">
+        <v>7</v>
+      </c>
+      <c r="C375" t="s">
+        <v>6</v>
+      </c>
+      <c r="D375" t="s">
+        <v>12</v>
+      </c>
+      <c r="E375" t="s">
+        <v>190</v>
+      </c>
+      <c r="F375" t="s">
+        <v>487</v>
+      </c>
+      <c r="G375" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7">
+      <c r="A376" s="1">
+        <v>24</v>
+      </c>
+      <c r="B376" t="s">
+        <v>9</v>
+      </c>
+      <c r="C376" t="s">
+        <v>6</v>
+      </c>
+      <c r="D376" t="s">
+        <v>12</v>
+      </c>
+      <c r="E376" t="s">
+        <v>191</v>
+      </c>
+      <c r="F376" t="s">
+        <v>488</v>
+      </c>
+      <c r="G376" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7">
+      <c r="A377" s="1">
+        <v>25</v>
+      </c>
+      <c r="B377" t="s">
+        <v>6</v>
+      </c>
+      <c r="C377" t="s">
+        <v>6</v>
+      </c>
+      <c r="D377" t="s">
+        <v>12</v>
+      </c>
+      <c r="E377" t="s">
+        <v>192</v>
+      </c>
+      <c r="F377" t="s">
+        <v>489</v>
+      </c>
+      <c r="G377" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7">
+      <c r="A378" s="1">
+        <v>26</v>
+      </c>
+      <c r="B378" t="s">
+        <v>7</v>
+      </c>
+      <c r="C378" t="s">
+        <v>6</v>
+      </c>
+      <c r="D378" t="s">
+        <v>12</v>
+      </c>
+      <c r="E378" t="s">
+        <v>193</v>
+      </c>
+      <c r="F378" t="s">
+        <v>490</v>
+      </c>
+      <c r="G378" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7">
+      <c r="A379" s="1">
+        <v>27</v>
+      </c>
+      <c r="B379" t="s">
+        <v>7</v>
+      </c>
+      <c r="C379" t="s">
+        <v>6</v>
+      </c>
+      <c r="D379" t="s">
+        <v>12</v>
+      </c>
+      <c r="E379" t="s">
+        <v>194</v>
+      </c>
+      <c r="F379" t="s">
+        <v>491</v>
+      </c>
+      <c r="G379" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7">
+      <c r="A380" s="1">
+        <v>28</v>
+      </c>
+      <c r="B380" t="s">
+        <v>7</v>
+      </c>
+      <c r="C380" t="s">
+        <v>6</v>
+      </c>
+      <c r="D380" t="s">
+        <v>12</v>
+      </c>
+      <c r="E380" t="s">
+        <v>195</v>
+      </c>
+      <c r="F380" t="s">
+        <v>492</v>
+      </c>
+      <c r="G380" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7">
+      <c r="A381" s="1">
+        <v>29</v>
+      </c>
+      <c r="B381" t="s">
+        <v>9</v>
+      </c>
+      <c r="C381" t="s">
+        <v>6</v>
+      </c>
+      <c r="D381" t="s">
+        <v>12</v>
+      </c>
+      <c r="E381" t="s">
+        <v>196</v>
+      </c>
+      <c r="F381" t="s">
+        <v>493</v>
+      </c>
+      <c r="G381" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7">
+      <c r="A382" s="1">
+        <v>30</v>
+      </c>
+      <c r="B382" t="s">
+        <v>7</v>
+      </c>
+      <c r="C382" t="s">
+        <v>6</v>
+      </c>
+      <c r="D382" t="s">
+        <v>12</v>
+      </c>
+      <c r="E382" t="s">
+        <v>197</v>
+      </c>
+      <c r="F382" t="s">
+        <v>494</v>
+      </c>
+      <c r="G382" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7">
+      <c r="A383" s="1">
+        <v>31</v>
+      </c>
+      <c r="B383" t="s">
+        <v>7</v>
+      </c>
+      <c r="C383" t="s">
+        <v>6</v>
+      </c>
+      <c r="D383" t="s">
+        <v>12</v>
+      </c>
+      <c r="E383" t="s">
+        <v>198</v>
+      </c>
+      <c r="F383" t="s">
+        <v>495</v>
+      </c>
+      <c r="G383" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7">
+      <c r="A384" s="1">
+        <v>32</v>
+      </c>
+      <c r="B384" t="s">
+        <v>7</v>
+      </c>
+      <c r="C384" t="s">
+        <v>6</v>
+      </c>
+      <c r="D384" t="s">
+        <v>12</v>
+      </c>
+      <c r="E384" t="s">
+        <v>199</v>
+      </c>
+      <c r="F384" t="s">
+        <v>496</v>
+      </c>
+      <c r="G384" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="385" spans="1:7">
+      <c r="A385" s="1">
+        <v>33</v>
+      </c>
+      <c r="B385" t="s">
+        <v>8</v>
+      </c>
+      <c r="C385" t="s">
+        <v>6</v>
+      </c>
+      <c r="D385" t="s">
+        <v>12</v>
+      </c>
+      <c r="E385" t="s">
+        <v>200</v>
+      </c>
+      <c r="F385" t="s">
+        <v>497</v>
+      </c>
+      <c r="G385" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="386" spans="1:7">
+      <c r="A386" s="1">
+        <v>34</v>
+      </c>
+      <c r="B386" t="s">
+        <v>6</v>
+      </c>
+      <c r="C386" t="s">
+        <v>6</v>
+      </c>
+      <c r="D386" t="s">
+        <v>12</v>
+      </c>
+      <c r="E386" t="s">
+        <v>201</v>
+      </c>
+      <c r="F386" t="s">
+        <v>498</v>
+      </c>
+      <c r="G386" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="387" spans="1:7">
+      <c r="A387" s="1">
+        <v>35</v>
+      </c>
+      <c r="B387" t="s">
+        <v>7</v>
+      </c>
+      <c r="C387" t="s">
+        <v>6</v>
+      </c>
+      <c r="D387" t="s">
+        <v>12</v>
+      </c>
+      <c r="E387" t="s">
+        <v>202</v>
+      </c>
+      <c r="F387" t="s">
+        <v>499</v>
+      </c>
+      <c r="G387" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="388" spans="1:7">
+      <c r="A388" s="1">
+        <v>36</v>
+      </c>
+      <c r="B388" t="s">
+        <v>7</v>
+      </c>
+      <c r="C388" t="s">
+        <v>6</v>
+      </c>
+      <c r="D388" t="s">
+        <v>12</v>
+      </c>
+      <c r="E388" t="s">
+        <v>203</v>
+      </c>
+      <c r="F388" t="s">
+        <v>500</v>
+      </c>
+      <c r="G388" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="389" spans="1:7">
+      <c r="A389" s="1">
+        <v>37</v>
+      </c>
+      <c r="B389" t="s">
+        <v>7</v>
+      </c>
+      <c r="C389" t="s">
+        <v>6</v>
+      </c>
+      <c r="D389" t="s">
+        <v>12</v>
+      </c>
+      <c r="E389" t="s">
+        <v>204</v>
+      </c>
+      <c r="F389" t="s">
+        <v>501</v>
+      </c>
+      <c r="G389" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="390" spans="1:7">
+      <c r="A390" s="1">
+        <v>38</v>
+      </c>
+      <c r="B390" t="s">
+        <v>8</v>
+      </c>
+      <c r="C390" t="s">
+        <v>6</v>
+      </c>
+      <c r="D390" t="s">
+        <v>12</v>
+      </c>
+      <c r="E390" t="s">
+        <v>205</v>
+      </c>
+      <c r="F390" t="s">
+        <v>502</v>
+      </c>
+      <c r="G390" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="391" spans="1:7">
+      <c r="A391" s="1">
+        <v>39</v>
+      </c>
+      <c r="B391" t="s">
+        <v>9</v>
+      </c>
+      <c r="C391" t="s">
+        <v>6</v>
+      </c>
+      <c r="D391" t="s">
+        <v>12</v>
+      </c>
+      <c r="E391" t="s">
+        <v>206</v>
+      </c>
+      <c r="F391" t="s">
+        <v>503</v>
+      </c>
+      <c r="G391" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="392" spans="1:7">
+      <c r="A392" s="1">
+        <v>40</v>
+      </c>
+      <c r="B392" t="s">
+        <v>9</v>
+      </c>
+      <c r="C392" t="s">
+        <v>6</v>
+      </c>
+      <c r="D392" t="s">
+        <v>12</v>
+      </c>
+      <c r="E392" t="s">
+        <v>207</v>
+      </c>
+      <c r="F392" t="s">
+        <v>504</v>
+      </c>
+      <c r="G392" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="393" spans="1:7">
+      <c r="A393" s="1">
+        <v>41</v>
+      </c>
+      <c r="B393" t="s">
+        <v>6</v>
+      </c>
+      <c r="C393" t="s">
+        <v>6</v>
+      </c>
+      <c r="D393" t="s">
+        <v>12</v>
+      </c>
+      <c r="E393" t="s">
+        <v>208</v>
+      </c>
+      <c r="F393" t="s">
+        <v>505</v>
+      </c>
+      <c r="G393" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="394" spans="1:7">
+      <c r="A394" s="1">
+        <v>42</v>
+      </c>
+      <c r="B394" t="s">
+        <v>9</v>
+      </c>
+      <c r="C394" t="s">
+        <v>6</v>
+      </c>
+      <c r="D394" t="s">
+        <v>12</v>
+      </c>
+      <c r="E394" t="s">
+        <v>209</v>
+      </c>
+      <c r="F394" t="s">
+        <v>506</v>
+      </c>
+      <c r="G394" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="395" spans="1:7">
+      <c r="A395" s="1">
+        <v>43</v>
+      </c>
+      <c r="B395" t="s">
+        <v>9</v>
+      </c>
+      <c r="C395" t="s">
+        <v>6</v>
+      </c>
+      <c r="D395" t="s">
+        <v>12</v>
+      </c>
+      <c r="E395" t="s">
+        <v>210</v>
+      </c>
+      <c r="F395" t="s">
+        <v>507</v>
+      </c>
+      <c r="G395" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="396" spans="1:7">
+      <c r="A396" s="1">
+        <v>44</v>
+      </c>
+      <c r="B396" t="s">
+        <v>8</v>
+      </c>
+      <c r="C396" t="s">
+        <v>6</v>
+      </c>
+      <c r="D396" t="s">
+        <v>12</v>
+      </c>
+      <c r="E396" t="s">
+        <v>211</v>
+      </c>
+      <c r="F396" t="s">
+        <v>508</v>
+      </c>
+      <c r="G396" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="397" spans="1:7">
+      <c r="A397" s="1">
+        <v>45</v>
+      </c>
+      <c r="B397" t="s">
+        <v>9</v>
+      </c>
+      <c r="C397" t="s">
+        <v>6</v>
+      </c>
+      <c r="D397" t="s">
+        <v>12</v>
+      </c>
+      <c r="E397" t="s">
+        <v>212</v>
+      </c>
+      <c r="F397" t="s">
+        <v>509</v>
+      </c>
+      <c r="G397" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="398" spans="1:7">
+      <c r="A398" s="1">
+        <v>46</v>
+      </c>
+      <c r="B398" t="s">
+        <v>6</v>
+      </c>
+      <c r="C398" t="s">
+        <v>6</v>
+      </c>
+      <c r="D398" t="s">
+        <v>12</v>
+      </c>
+      <c r="E398" t="s">
+        <v>213</v>
+      </c>
+      <c r="F398" t="s">
+        <v>510</v>
+      </c>
+      <c r="G398" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="399" spans="1:7">
+      <c r="A399" s="1">
+        <v>47</v>
+      </c>
+      <c r="B399" t="s">
+        <v>7</v>
+      </c>
+      <c r="C399" t="s">
+        <v>6</v>
+      </c>
+      <c r="D399" t="s">
+        <v>12</v>
+      </c>
+      <c r="E399" t="s">
+        <v>214</v>
+      </c>
+      <c r="F399" t="s">
+        <v>511</v>
+      </c>
+      <c r="G399" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="400" spans="1:7">
+      <c r="A400" s="1">
+        <v>48</v>
+      </c>
+      <c r="B400" t="s">
+        <v>8</v>
+      </c>
+      <c r="C400" t="s">
+        <v>6</v>
+      </c>
+      <c r="D400" t="s">
+        <v>12</v>
+      </c>
+      <c r="E400" t="s">
+        <v>215</v>
+      </c>
+      <c r="F400" t="s">
+        <v>512</v>
+      </c>
+      <c r="G400" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="401" spans="1:7">
+      <c r="A401" s="1">
+        <v>49</v>
+      </c>
+      <c r="B401" t="s">
+        <v>7</v>
+      </c>
+      <c r="C401" t="s">
+        <v>6</v>
+      </c>
+      <c r="D401" t="s">
+        <v>12</v>
+      </c>
+      <c r="E401" t="s">
+        <v>216</v>
+      </c>
+      <c r="F401" t="s">
+        <v>513</v>
+      </c>
+      <c r="G401" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="402" spans="1:7">
+      <c r="A402" s="1">
+        <v>0</v>
+      </c>
+      <c r="B402" t="s">
+        <v>8</v>
+      </c>
+      <c r="C402" t="s">
+        <v>6</v>
+      </c>
+      <c r="D402" t="s">
+        <v>13</v>
+      </c>
+      <c r="E402" t="s">
+        <v>217</v>
+      </c>
+      <c r="F402" t="s">
+        <v>514</v>
+      </c>
+      <c r="G402" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="403" spans="1:7">
+      <c r="A403" s="1">
+        <v>1</v>
+      </c>
+      <c r="B403" t="s">
+        <v>8</v>
+      </c>
+      <c r="C403" t="s">
+        <v>6</v>
+      </c>
+      <c r="D403" t="s">
+        <v>13</v>
+      </c>
+      <c r="E403" t="s">
+        <v>218</v>
+      </c>
+      <c r="F403" t="s">
+        <v>515</v>
+      </c>
+      <c r="G403" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="404" spans="1:7">
+      <c r="A404" s="1">
+        <v>2</v>
+      </c>
+      <c r="B404" t="s">
+        <v>8</v>
+      </c>
+      <c r="C404" t="s">
+        <v>6</v>
+      </c>
+      <c r="D404" t="s">
+        <v>13</v>
+      </c>
+      <c r="E404" t="s">
+        <v>219</v>
+      </c>
+      <c r="F404" t="s">
+        <v>516</v>
+      </c>
+      <c r="G404" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="405" spans="1:7">
+      <c r="A405" s="1">
+        <v>3</v>
+      </c>
+      <c r="B405" t="s">
+        <v>6</v>
+      </c>
+      <c r="C405" t="s">
+        <v>6</v>
+      </c>
+      <c r="D405" t="s">
+        <v>13</v>
+      </c>
+      <c r="E405" t="s">
+        <v>220</v>
+      </c>
+      <c r="F405" t="s">
+        <v>517</v>
+      </c>
+      <c r="G405" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="406" spans="1:7">
+      <c r="A406" s="1">
+        <v>4</v>
+      </c>
+      <c r="B406" t="s">
+        <v>9</v>
+      </c>
+      <c r="C406" t="s">
+        <v>6</v>
+      </c>
+      <c r="D406" t="s">
+        <v>13</v>
+      </c>
+      <c r="E406" t="s">
+        <v>221</v>
+      </c>
+      <c r="F406" t="s">
+        <v>518</v>
+      </c>
+      <c r="G406" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="407" spans="1:7">
+      <c r="A407" s="1">
+        <v>5</v>
+      </c>
+      <c r="B407" t="s">
+        <v>7</v>
+      </c>
+      <c r="C407" t="s">
+        <v>6</v>
+      </c>
+      <c r="D407" t="s">
+        <v>13</v>
+      </c>
+      <c r="E407" t="s">
+        <v>222</v>
+      </c>
+      <c r="F407" t="s">
+        <v>519</v>
+      </c>
+      <c r="G407" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="408" spans="1:7">
+      <c r="A408" s="1">
+        <v>6</v>
+      </c>
+      <c r="B408" t="s">
+        <v>9</v>
+      </c>
+      <c r="C408" t="s">
+        <v>6</v>
+      </c>
+      <c r="D408" t="s">
+        <v>13</v>
+      </c>
+      <c r="E408" t="s">
+        <v>223</v>
+      </c>
+      <c r="F408" t="s">
+        <v>520</v>
+      </c>
+      <c r="G408" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="409" spans="1:7">
+      <c r="A409" s="1">
+        <v>7</v>
+      </c>
+      <c r="B409" t="s">
+        <v>6</v>
+      </c>
+      <c r="C409" t="s">
+        <v>6</v>
+      </c>
+      <c r="D409" t="s">
+        <v>13</v>
+      </c>
+      <c r="E409" t="s">
+        <v>224</v>
+      </c>
+      <c r="F409" t="s">
+        <v>521</v>
+      </c>
+      <c r="G409" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="410" spans="1:7">
+      <c r="A410" s="1">
+        <v>8</v>
+      </c>
+      <c r="B410" t="s">
+        <v>6</v>
+      </c>
+      <c r="C410" t="s">
+        <v>6</v>
+      </c>
+      <c r="D410" t="s">
+        <v>13</v>
+      </c>
+      <c r="E410" t="s">
+        <v>225</v>
+      </c>
+      <c r="F410" t="s">
+        <v>522</v>
+      </c>
+      <c r="G410" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="411" spans="1:7">
+      <c r="A411" s="1">
+        <v>9</v>
+      </c>
+      <c r="B411" t="s">
+        <v>6</v>
+      </c>
+      <c r="C411" t="s">
+        <v>6</v>
+      </c>
+      <c r="D411" t="s">
+        <v>13</v>
+      </c>
+      <c r="E411" t="s">
+        <v>226</v>
+      </c>
+      <c r="F411" t="s">
+        <v>523</v>
+      </c>
+      <c r="G411" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="412" spans="1:7">
+      <c r="A412" s="1">
+        <v>10</v>
+      </c>
+      <c r="B412" t="s">
+        <v>8</v>
+      </c>
+      <c r="C412" t="s">
+        <v>6</v>
+      </c>
+      <c r="D412" t="s">
+        <v>13</v>
+      </c>
+      <c r="E412" t="s">
+        <v>227</v>
+      </c>
+      <c r="F412" t="s">
+        <v>524</v>
+      </c>
+      <c r="G412" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="413" spans="1:7">
+      <c r="A413" s="1">
+        <v>11</v>
+      </c>
+      <c r="B413" t="s">
+        <v>6</v>
+      </c>
+      <c r="C413" t="s">
+        <v>6</v>
+      </c>
+      <c r="D413" t="s">
+        <v>13</v>
+      </c>
+      <c r="E413" t="s">
+        <v>228</v>
+      </c>
+      <c r="F413" t="s">
+        <v>525</v>
+      </c>
+      <c r="G413" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="414" spans="1:7">
+      <c r="A414" s="1">
+        <v>12</v>
+      </c>
+      <c r="B414" t="s">
+        <v>9</v>
+      </c>
+      <c r="C414" t="s">
+        <v>6</v>
+      </c>
+      <c r="D414" t="s">
+        <v>13</v>
+      </c>
+      <c r="E414" t="s">
+        <v>229</v>
+      </c>
+      <c r="F414" t="s">
+        <v>526</v>
+      </c>
+      <c r="G414" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="415" spans="1:7">
+      <c r="A415" s="1">
+        <v>13</v>
+      </c>
+      <c r="B415" t="s">
+        <v>9</v>
+      </c>
+      <c r="C415" t="s">
+        <v>6</v>
+      </c>
+      <c r="D415" t="s">
+        <v>13</v>
+      </c>
+      <c r="E415" t="s">
+        <v>230</v>
+      </c>
+      <c r="F415" t="s">
+        <v>527</v>
+      </c>
+      <c r="G415" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="416" spans="1:7">
+      <c r="A416" s="1">
+        <v>14</v>
+      </c>
+      <c r="B416" t="s">
+        <v>7</v>
+      </c>
+      <c r="C416" t="s">
+        <v>6</v>
+      </c>
+      <c r="D416" t="s">
+        <v>13</v>
+      </c>
+      <c r="E416" t="s">
+        <v>231</v>
+      </c>
+      <c r="F416" t="s">
+        <v>528</v>
+      </c>
+      <c r="G416" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7">
+      <c r="A417" s="1">
+        <v>15</v>
+      </c>
+      <c r="B417" t="s">
+        <v>7</v>
+      </c>
+      <c r="C417" t="s">
+        <v>6</v>
+      </c>
+      <c r="D417" t="s">
+        <v>13</v>
+      </c>
+      <c r="E417" t="s">
+        <v>232</v>
+      </c>
+      <c r="F417" t="s">
+        <v>529</v>
+      </c>
+      <c r="G417" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7">
+      <c r="A418" s="1">
+        <v>16</v>
+      </c>
+      <c r="B418" t="s">
+        <v>7</v>
+      </c>
+      <c r="C418" t="s">
+        <v>6</v>
+      </c>
+      <c r="D418" t="s">
+        <v>13</v>
+      </c>
+      <c r="E418" t="s">
+        <v>233</v>
+      </c>
+      <c r="F418" t="s">
+        <v>530</v>
+      </c>
+      <c r="G418" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7">
+      <c r="A419" s="1">
+        <v>17</v>
+      </c>
+      <c r="B419" t="s">
+        <v>8</v>
+      </c>
+      <c r="C419" t="s">
+        <v>6</v>
+      </c>
+      <c r="D419" t="s">
+        <v>13</v>
+      </c>
+      <c r="E419" t="s">
+        <v>234</v>
+      </c>
+      <c r="F419" t="s">
+        <v>531</v>
+      </c>
+      <c r="G419" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7">
+      <c r="A420" s="1">
+        <v>18</v>
+      </c>
+      <c r="B420" t="s">
+        <v>8</v>
+      </c>
+      <c r="C420" t="s">
+        <v>6</v>
+      </c>
+      <c r="D420" t="s">
+        <v>13</v>
+      </c>
+      <c r="E420" t="s">
+        <v>235</v>
+      </c>
+      <c r="F420" t="s">
+        <v>532</v>
+      </c>
+      <c r="G420" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7">
+      <c r="A421" s="1">
+        <v>19</v>
+      </c>
+      <c r="B421" t="s">
+        <v>7</v>
+      </c>
+      <c r="C421" t="s">
+        <v>6</v>
+      </c>
+      <c r="D421" t="s">
+        <v>13</v>
+      </c>
+      <c r="E421" t="s">
+        <v>236</v>
+      </c>
+      <c r="F421" t="s">
+        <v>533</v>
+      </c>
+      <c r="G421" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7">
+      <c r="A422" s="1">
+        <v>20</v>
+      </c>
+      <c r="B422" t="s">
+        <v>8</v>
+      </c>
+      <c r="C422" t="s">
+        <v>6</v>
+      </c>
+      <c r="D422" t="s">
+        <v>13</v>
+      </c>
+      <c r="E422" t="s">
+        <v>237</v>
+      </c>
+      <c r="F422" t="s">
+        <v>534</v>
+      </c>
+      <c r="G422" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7">
+      <c r="A423" s="1">
+        <v>21</v>
+      </c>
+      <c r="B423" t="s">
+        <v>9</v>
+      </c>
+      <c r="C423" t="s">
+        <v>6</v>
+      </c>
+      <c r="D423" t="s">
+        <v>13</v>
+      </c>
+      <c r="E423" t="s">
+        <v>238</v>
+      </c>
+      <c r="F423" t="s">
+        <v>535</v>
+      </c>
+      <c r="G423" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7">
+      <c r="A424" s="1">
+        <v>22</v>
+      </c>
+      <c r="B424" t="s">
+        <v>8</v>
+      </c>
+      <c r="C424" t="s">
+        <v>6</v>
+      </c>
+      <c r="D424" t="s">
+        <v>13</v>
+      </c>
+      <c r="E424" t="s">
+        <v>233</v>
+      </c>
+      <c r="F424" t="s">
+        <v>536</v>
+      </c>
+      <c r="G424" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7">
+      <c r="A425" s="1">
+        <v>23</v>
+      </c>
+      <c r="B425" t="s">
+        <v>9</v>
+      </c>
+      <c r="C425" t="s">
+        <v>6</v>
+      </c>
+      <c r="D425" t="s">
+        <v>13</v>
+      </c>
+      <c r="E425" t="s">
+        <v>239</v>
+      </c>
+      <c r="F425" t="s">
+        <v>537</v>
+      </c>
+      <c r="G425" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7">
+      <c r="A426" s="1">
+        <v>24</v>
+      </c>
+      <c r="B426" t="s">
+        <v>6</v>
+      </c>
+      <c r="C426" t="s">
+        <v>6</v>
+      </c>
+      <c r="D426" t="s">
+        <v>13</v>
+      </c>
+      <c r="E426" t="s">
+        <v>240</v>
+      </c>
+      <c r="F426" t="s">
+        <v>538</v>
+      </c>
+      <c r="G426" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7">
+      <c r="A427" s="1">
+        <v>25</v>
+      </c>
+      <c r="B427" t="s">
+        <v>8</v>
+      </c>
+      <c r="C427" t="s">
+        <v>6</v>
+      </c>
+      <c r="D427" t="s">
+        <v>13</v>
+      </c>
+      <c r="E427" t="s">
+        <v>241</v>
+      </c>
+      <c r="F427" t="s">
+        <v>539</v>
+      </c>
+      <c r="G427" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7">
+      <c r="A428" s="1">
+        <v>26</v>
+      </c>
+      <c r="B428" t="s">
+        <v>7</v>
+      </c>
+      <c r="C428" t="s">
+        <v>6</v>
+      </c>
+      <c r="D428" t="s">
+        <v>13</v>
+      </c>
+      <c r="E428" t="s">
+        <v>242</v>
+      </c>
+      <c r="F428" t="s">
+        <v>540</v>
+      </c>
+      <c r="G428" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7">
+      <c r="A429" s="1">
+        <v>27</v>
+      </c>
+      <c r="B429" t="s">
+        <v>6</v>
+      </c>
+      <c r="C429" t="s">
+        <v>6</v>
+      </c>
+      <c r="D429" t="s">
+        <v>13</v>
+      </c>
+      <c r="E429" t="s">
+        <v>243</v>
+      </c>
+      <c r="F429" t="s">
+        <v>541</v>
+      </c>
+      <c r="G429" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7">
+      <c r="A430" s="1">
+        <v>28</v>
+      </c>
+      <c r="B430" t="s">
+        <v>8</v>
+      </c>
+      <c r="C430" t="s">
+        <v>6</v>
+      </c>
+      <c r="D430" t="s">
+        <v>13</v>
+      </c>
+      <c r="E430" t="s">
+        <v>233</v>
+      </c>
+      <c r="F430" t="s">
+        <v>542</v>
+      </c>
+      <c r="G430" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7">
+      <c r="A431" s="1">
+        <v>29</v>
+      </c>
+      <c r="B431" t="s">
+        <v>8</v>
+      </c>
+      <c r="C431" t="s">
+        <v>6</v>
+      </c>
+      <c r="D431" t="s">
+        <v>13</v>
+      </c>
+      <c r="E431" t="s">
+        <v>244</v>
+      </c>
+      <c r="F431" t="s">
+        <v>543</v>
+      </c>
+      <c r="G431" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7">
+      <c r="A432" s="1">
+        <v>30</v>
+      </c>
+      <c r="B432" t="s">
+        <v>9</v>
+      </c>
+      <c r="C432" t="s">
+        <v>6</v>
+      </c>
+      <c r="D432" t="s">
+        <v>13</v>
+      </c>
+      <c r="E432" t="s">
+        <v>245</v>
+      </c>
+      <c r="F432" t="s">
+        <v>544</v>
+      </c>
+      <c r="G432" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7">
+      <c r="A433" s="1">
+        <v>31</v>
+      </c>
+      <c r="B433" t="s">
+        <v>6</v>
+      </c>
+      <c r="C433" t="s">
+        <v>6</v>
+      </c>
+      <c r="D433" t="s">
+        <v>13</v>
+      </c>
+      <c r="E433" t="s">
+        <v>246</v>
+      </c>
+      <c r="F433" t="s">
+        <v>545</v>
+      </c>
+      <c r="G433" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7">
+      <c r="A434" s="1">
+        <v>32</v>
+      </c>
+      <c r="B434" t="s">
+        <v>7</v>
+      </c>
+      <c r="C434" t="s">
+        <v>6</v>
+      </c>
+      <c r="D434" t="s">
+        <v>13</v>
+      </c>
+      <c r="E434" t="s">
+        <v>247</v>
+      </c>
+      <c r="F434" t="s">
+        <v>546</v>
+      </c>
+      <c r="G434" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7">
+      <c r="A435" s="1">
+        <v>33</v>
+      </c>
+      <c r="B435" t="s">
+        <v>9</v>
+      </c>
+      <c r="C435" t="s">
+        <v>6</v>
+      </c>
+      <c r="D435" t="s">
+        <v>13</v>
+      </c>
+      <c r="E435" t="s">
+        <v>233</v>
+      </c>
+      <c r="F435" t="s">
+        <v>547</v>
+      </c>
+      <c r="G435" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7">
+      <c r="A436" s="1">
+        <v>34</v>
+      </c>
+      <c r="B436" t="s">
+        <v>8</v>
+      </c>
+      <c r="C436" t="s">
+        <v>6</v>
+      </c>
+      <c r="D436" t="s">
+        <v>13</v>
+      </c>
+      <c r="E436" t="s">
+        <v>248</v>
+      </c>
+      <c r="F436" t="s">
+        <v>548</v>
+      </c>
+      <c r="G436" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7">
+      <c r="A437" s="1">
+        <v>35</v>
+      </c>
+      <c r="B437" t="s">
+        <v>9</v>
+      </c>
+      <c r="C437" t="s">
+        <v>6</v>
+      </c>
+      <c r="D437" t="s">
+        <v>13</v>
+      </c>
+      <c r="E437" t="s">
+        <v>249</v>
+      </c>
+      <c r="F437" t="s">
+        <v>549</v>
+      </c>
+      <c r="G437" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7">
+      <c r="A438" s="1">
+        <v>36</v>
+      </c>
+      <c r="B438" t="s">
+        <v>8</v>
+      </c>
+      <c r="C438" t="s">
+        <v>6</v>
+      </c>
+      <c r="D438" t="s">
+        <v>13</v>
+      </c>
+      <c r="E438" t="s">
+        <v>250</v>
+      </c>
+      <c r="F438" t="s">
+        <v>550</v>
+      </c>
+      <c r="G438" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7">
+      <c r="A439" s="1">
+        <v>37</v>
+      </c>
+      <c r="B439" t="s">
+        <v>8</v>
+      </c>
+      <c r="C439" t="s">
+        <v>6</v>
+      </c>
+      <c r="D439" t="s">
+        <v>13</v>
+      </c>
+      <c r="E439" t="s">
+        <v>251</v>
+      </c>
+      <c r="F439" t="s">
+        <v>551</v>
+      </c>
+      <c r="G439" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7">
+      <c r="A440" s="1">
+        <v>38</v>
+      </c>
+      <c r="B440" t="s">
+        <v>7</v>
+      </c>
+      <c r="C440" t="s">
+        <v>6</v>
+      </c>
+      <c r="D440" t="s">
+        <v>13</v>
+      </c>
+      <c r="E440" t="s">
+        <v>252</v>
+      </c>
+      <c r="F440" t="s">
+        <v>552</v>
+      </c>
+      <c r="G440" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7">
+      <c r="A441" s="1">
+        <v>39</v>
+      </c>
+      <c r="B441" t="s">
+        <v>8</v>
+      </c>
+      <c r="C441" t="s">
+        <v>6</v>
+      </c>
+      <c r="D441" t="s">
+        <v>13</v>
+      </c>
+      <c r="E441" t="s">
+        <v>253</v>
+      </c>
+      <c r="F441" t="s">
+        <v>553</v>
+      </c>
+      <c r="G441" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7">
+      <c r="A442" s="1">
+        <v>40</v>
+      </c>
+      <c r="B442" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442" t="s">
+        <v>6</v>
+      </c>
+      <c r="D442" t="s">
+        <v>13</v>
+      </c>
+      <c r="E442" t="s">
+        <v>254</v>
+      </c>
+      <c r="F442" t="s">
+        <v>554</v>
+      </c>
+      <c r="G442" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7">
+      <c r="A443" s="1">
+        <v>41</v>
+      </c>
+      <c r="B443" t="s">
+        <v>9</v>
+      </c>
+      <c r="C443" t="s">
+        <v>6</v>
+      </c>
+      <c r="D443" t="s">
+        <v>13</v>
+      </c>
+      <c r="E443" t="s">
+        <v>255</v>
+      </c>
+      <c r="F443" t="s">
+        <v>555</v>
+      </c>
+      <c r="G443" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7">
+      <c r="A444" s="1">
+        <v>42</v>
+      </c>
+      <c r="B444" t="s">
+        <v>6</v>
+      </c>
+      <c r="C444" t="s">
+        <v>6</v>
+      </c>
+      <c r="D444" t="s">
+        <v>13</v>
+      </c>
+      <c r="E444" t="s">
+        <v>256</v>
+      </c>
+      <c r="F444" t="s">
+        <v>556</v>
+      </c>
+      <c r="G444" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7">
+      <c r="A445" s="1">
+        <v>43</v>
+      </c>
+      <c r="B445" t="s">
+        <v>8</v>
+      </c>
+      <c r="C445" t="s">
+        <v>6</v>
+      </c>
+      <c r="D445" t="s">
+        <v>13</v>
+      </c>
+      <c r="E445" t="s">
+        <v>257</v>
+      </c>
+      <c r="F445" t="s">
+        <v>557</v>
+      </c>
+      <c r="G445" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7">
+      <c r="A446" s="1">
+        <v>44</v>
+      </c>
+      <c r="B446" t="s">
+        <v>7</v>
+      </c>
+      <c r="C446" t="s">
+        <v>6</v>
+      </c>
+      <c r="D446" t="s">
+        <v>13</v>
+      </c>
+      <c r="E446" t="s">
+        <v>258</v>
+      </c>
+      <c r="F446" t="s">
+        <v>558</v>
+      </c>
+      <c r="G446" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7">
+      <c r="A447" s="1">
+        <v>45</v>
+      </c>
+      <c r="B447" t="s">
+        <v>7</v>
+      </c>
+      <c r="C447" t="s">
+        <v>6</v>
+      </c>
+      <c r="D447" t="s">
+        <v>13</v>
+      </c>
+      <c r="E447" t="s">
+        <v>259</v>
+      </c>
+      <c r="F447" t="s">
+        <v>559</v>
+      </c>
+      <c r="G447" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7">
+      <c r="A448" s="1">
+        <v>46</v>
+      </c>
+      <c r="B448" t="s">
+        <v>9</v>
+      </c>
+      <c r="C448" t="s">
+        <v>6</v>
+      </c>
+      <c r="D448" t="s">
+        <v>13</v>
+      </c>
+      <c r="E448" t="s">
+        <v>260</v>
+      </c>
+      <c r="F448" t="s">
+        <v>560</v>
+      </c>
+      <c r="G448" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7">
+      <c r="A449" s="1">
+        <v>47</v>
+      </c>
+      <c r="B449" t="s">
+        <v>6</v>
+      </c>
+      <c r="C449" t="s">
+        <v>6</v>
+      </c>
+      <c r="D449" t="s">
+        <v>13</v>
+      </c>
+      <c r="E449" t="s">
+        <v>261</v>
+      </c>
+      <c r="F449" t="s">
+        <v>561</v>
+      </c>
+      <c r="G449" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7">
+      <c r="A450" s="1">
+        <v>48</v>
+      </c>
+      <c r="B450" t="s">
+        <v>6</v>
+      </c>
+      <c r="C450" t="s">
+        <v>6</v>
+      </c>
+      <c r="D450" t="s">
+        <v>13</v>
+      </c>
+      <c r="E450" t="s">
+        <v>262</v>
+      </c>
+      <c r="F450" t="s">
+        <v>562</v>
+      </c>
+      <c r="G450" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7">
+      <c r="A451" s="1">
+        <v>49</v>
+      </c>
+      <c r="B451" t="s">
+        <v>6</v>
+      </c>
+      <c r="C451" t="s">
+        <v>6</v>
+      </c>
+      <c r="D451" t="s">
+        <v>13</v>
+      </c>
+      <c r="E451" t="s">
+        <v>263</v>
+      </c>
+      <c r="F451" t="s">
+        <v>563</v>
+      </c>
+      <c r="G451" t="s">
+        <v>564</v>
       </c>
     </row>
   </sheetData>
